--- a/PROYECTO CP/JMETER/APDEX/[CP RNF] - PPS APDEX.xlsx
+++ b/PROYECTO CP/JMETER/APDEX/[CP RNF] - PPS APDEX.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO CP\JMETER\APDEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F08609E-575A-4571-9015-F8743F92CAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Formato 1.0 " sheetId="5" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="Tipo_Pruebas">ejemplo!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Formato 1.0 '!$1:$13</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="230">
   <si>
     <t>PLAN DE PRUEBAS DE SISTEMAS</t>
   </si>
@@ -1566,23 +1565,6 @@
     <t>Pasarela - Pruebas No funcionales</t>
   </si>
   <si>
-    <t>Dominio: gateway-apim-test.vuce.gob.pe
-Uri: Endpoints del segmento
-Documento csv: ViewResultTree.csv</t>
-  </si>
-  <si>
-    <t>1. Habilitar el "Recording Controller" del Segmento de prueba que forma parte del test
-2. Deshabilitar el (los) "Recordring Control" de (los) segmento de prueba(s) que no forma parte del test
-3. Asignar en Filename la ruta del ViewResultTree.csv del listener "View Result Tree"
-4. Asignar en Filename la ruta del Summary Report.csv del listener "Summary Report"
-5. Asignar en Filename la ruta del ViewResultTree.csv del test element "Apdex Score Calculator"
-6. Asignar en "Apdex Target Threshold" el valor "2", en "Apdex Acceptable Quality" en valor "0.94" del test element "Apdex Score Calculator"
-7. Clic en el botón "Start"
-8. Validar en "View Result Tree" la respuesta de los endpoint en estado satisfactorio
-9. Clic en el botón "Calculate" del test element "Apdex Score Calculator"
-10. Clic en el botón "Save Table Data"</t>
-  </si>
-  <si>
     <t>REQ-NOF-13</t>
   </si>
   <si>
@@ -1602,14 +1584,6 @@
 -ViewResultTree.csv
 -Summary Report.csv
 -ViewResultTree_ApdexScores.csv</t>
-  </si>
-  <si>
-    <t>Tener disponibilidad del AP WebService
-Permisos de accesos a al sistema
-Instalada la Herramienta JMETER y abrir el artefacto .jmx
-Contar con el Plugin instalado en la herramienta Jmeter
-Contar con el complemento instalado "APDEX Calculator"
-Tener la configuración en el ambiente calidad y la coordinación del lapso de tiempo para la pruebas.</t>
   </si>
   <si>
     <t>Validar resultados APDEX del Flujo "DUE-01-Trafico-INTERNACIONAL" - Cuando Segmento es "DUE-01 Segmento 1 Trafico Internacional Crear DUE"</t>
@@ -1689,11 +1663,57 @@
   <si>
     <t>Validar resultados APDEX del Flujo "FICHA-TECNICA" - Cuando Segmento es "FT-04 Consulta Bandeja FT"</t>
   </si>
+  <si>
+    <t>El sistema muestra los resultados APDEX en la columna "Apdex Rating" en estado "Excellent" (Satisfecho), se manera satisfactoria y se obtienen los Reportes:
+.- ViewResultTree.csv
+.- Summary Report.csv
+.- ViewResultTree_ApdexScores.csv</t>
+  </si>
+  <si>
+    <t>Dominio: gateway-apim-test.vuce.gob.pe
+Uri: Endpoints del segmento
+Archivo(s) Input de Carga: 
+- listapasajeros.xlsx
+- mercancias_peligrosas.xlsx
+- narcoticos.xlsx
+- provision.xlsx
+- Reporte_Listado.pdf
+- tripulantes.xlsx
+Archivo(s) Output de Resultado(s):
+- ViewResultTree.csv</t>
+  </si>
+  <si>
+    <t>Tener disponibilidad del API WebService
+Permisos de accesos a al sistema
+Contar con la Herramienta JMETER
+Contar con el Plugin instalado en la herramienta Jmeter
+Contar con el complemento instalado "APDEX Calculator"
+Tener la configuración en el ambiente calidad y la coordinación del lapso de tiempo para la pruebas
+Abierto el artefacto .jmx, y de solicitar la prueba, configurar los archivos de carga en los endpoint que consumen:
+- listapasajeros.xlsx
+- mercancias_peligrosas.xlsx
+- narcoticos.xlsx
+- provision.xlsx
+- Reporte_Listado.pdf
+- tripulantes.xlsx</t>
+  </si>
+  <si>
+    <t>1. Habilitar los objetos "Thread Group" y "Recording Controller" del Segmento de prueba que forma parte del test
+2. Deshabilitar el (los) objeto(s) "Thread Group" y "Recordring Control" de (los) segmento de prueba(s) que no forma parte del test
+3. Asignar en Filename la ruta del ViewResultTree.csv del listener "View Result Tree"
+4. Asignar en Filename la ruta del Summary Report.csv del listener "Summary Report"
+5. Asignar en Filename la ruta del ViewResultTree.csv del test element "Apdex Score Calculator"
+6. Asignar en "Apdex Target Threshold" el valor "2", en "Apdex Acceptable Quality" en valor "0.94" del test element "Apdex Score Calculator"
+7. Clic en el botón "Start" (de aparecer popup "Warning", clic en botón "Overwrite existing file" para sobre escribir archivos)
+8. Validar en "View Result Tree" la respuesta de los endpoint en estado satisfactorio
+9. Clic en el botón "Calculate" del test element "Apdex Score Calculator"
+10. Clic en el botón "Save Table Data"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1832,7 +1852,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1866,6 +1886,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2404,7 +2436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2590,9 +2622,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2618,10 +2647,40 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2702,28 +2761,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2876,34 +2929,124 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -18244,11 +18387,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AX96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U44" sqref="U44:Z44"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AV53" sqref="AV53:AV69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18292,373 +18435,373 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J3" s="156" t="s">
+      <c r="J3" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="156"/>
-      <c r="T3" s="156"/>
-      <c r="U3" s="156"/>
-      <c r="V3" s="156"/>
-      <c r="W3" s="156"/>
-      <c r="X3" s="156"/>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="156"/>
-      <c r="AD3" s="156"/>
-      <c r="AE3" s="156"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="156"/>
-      <c r="AH3" s="156"/>
-      <c r="AI3" s="156"/>
-      <c r="AJ3" s="156"/>
-      <c r="AK3" s="156"/>
-      <c r="AL3" s="156"/>
-      <c r="AM3" s="156"/>
-      <c r="AN3" s="156"/>
-      <c r="AO3" s="156"/>
-      <c r="AP3" s="156"/>
-      <c r="AQ3" s="156"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="163"/>
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="163"/>
+      <c r="AD3" s="163"/>
+      <c r="AE3" s="163"/>
+      <c r="AF3" s="163"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="163"/>
+      <c r="AJ3" s="163"/>
+      <c r="AK3" s="163"/>
+      <c r="AL3" s="163"/>
+      <c r="AM3" s="163"/>
+      <c r="AN3" s="163"/>
+      <c r="AO3" s="163"/>
+      <c r="AP3" s="163"/>
+      <c r="AQ3" s="163"/>
       <c r="AR3" s="37"/>
       <c r="AS3" s="37"/>
     </row>
     <row r="4" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
-      <c r="R4" s="156"/>
-      <c r="S4" s="156"/>
-      <c r="T4" s="156"/>
-      <c r="U4" s="156"/>
-      <c r="V4" s="156"/>
-      <c r="W4" s="156"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="156"/>
-      <c r="Z4" s="156"/>
-      <c r="AA4" s="156"/>
-      <c r="AB4" s="156"/>
-      <c r="AC4" s="156"/>
-      <c r="AD4" s="156"/>
-      <c r="AE4" s="156"/>
-      <c r="AF4" s="156"/>
-      <c r="AG4" s="156"/>
-      <c r="AH4" s="156"/>
-      <c r="AI4" s="156"/>
-      <c r="AJ4" s="156"/>
-      <c r="AK4" s="156"/>
-      <c r="AL4" s="156"/>
-      <c r="AM4" s="156"/>
-      <c r="AN4" s="156"/>
-      <c r="AO4" s="156"/>
-      <c r="AP4" s="156"/>
-      <c r="AQ4" s="156"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="163"/>
+      <c r="R4" s="163"/>
+      <c r="S4" s="163"/>
+      <c r="T4" s="163"/>
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="163"/>
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="163"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="163"/>
+      <c r="AF4" s="163"/>
+      <c r="AG4" s="163"/>
+      <c r="AH4" s="163"/>
+      <c r="AI4" s="163"/>
+      <c r="AJ4" s="163"/>
+      <c r="AK4" s="163"/>
+      <c r="AL4" s="163"/>
+      <c r="AM4" s="163"/>
+      <c r="AN4" s="163"/>
+      <c r="AO4" s="163"/>
+      <c r="AP4" s="163"/>
+      <c r="AQ4" s="163"/>
       <c r="AR4" s="37"/>
       <c r="AS4" s="37"/>
     </row>
     <row r="5" spans="1:45" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:45" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I7" s="157" t="s">
+      <c r="I7" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="157"/>
-      <c r="K7" s="157"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="157"/>
-      <c r="N7" s="157"/>
-      <c r="O7" s="157"/>
-      <c r="P7" s="157"/>
-      <c r="Q7" s="157"/>
-      <c r="R7" s="157"/>
-      <c r="S7" s="157"/>
-      <c r="T7" s="157"/>
-      <c r="U7" s="157"/>
-      <c r="V7" s="157"/>
-      <c r="W7" s="157"/>
-      <c r="X7" s="157"/>
-      <c r="Y7" s="157"/>
-      <c r="Z7" s="157"/>
-      <c r="AA7" s="157"/>
-      <c r="AB7" s="157"/>
-      <c r="AC7" s="157"/>
-      <c r="AD7" s="157"/>
-      <c r="AE7" s="157"/>
-      <c r="AF7" s="157"/>
-      <c r="AG7" s="157"/>
-      <c r="AH7" s="157"/>
-      <c r="AI7" s="157"/>
-      <c r="AJ7" s="157"/>
-      <c r="AK7" s="157"/>
-      <c r="AL7" s="157"/>
-      <c r="AM7" s="157"/>
-      <c r="AN7" s="157"/>
-      <c r="AO7" s="157"/>
-      <c r="AP7" s="157"/>
-      <c r="AQ7" s="157"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="164"/>
+      <c r="N7" s="164"/>
+      <c r="O7" s="164"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="164"/>
+      <c r="R7" s="164"/>
+      <c r="S7" s="164"/>
+      <c r="T7" s="164"/>
+      <c r="U7" s="164"/>
+      <c r="V7" s="164"/>
+      <c r="W7" s="164"/>
+      <c r="X7" s="164"/>
+      <c r="Y7" s="164"/>
+      <c r="Z7" s="164"/>
+      <c r="AA7" s="164"/>
+      <c r="AB7" s="164"/>
+      <c r="AC7" s="164"/>
+      <c r="AD7" s="164"/>
+      <c r="AE7" s="164"/>
+      <c r="AF7" s="164"/>
+      <c r="AG7" s="164"/>
+      <c r="AH7" s="164"/>
+      <c r="AI7" s="164"/>
+      <c r="AJ7" s="164"/>
+      <c r="AK7" s="164"/>
+      <c r="AL7" s="164"/>
+      <c r="AM7" s="164"/>
+      <c r="AN7" s="164"/>
+      <c r="AO7" s="164"/>
+      <c r="AP7" s="164"/>
+      <c r="AQ7" s="164"/>
       <c r="AR7" s="39"/>
       <c r="AS7" s="39"/>
     </row>
     <row r="8" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I8" s="158" t="s">
+      <c r="I8" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="159"/>
-      <c r="K8" s="158" t="s">
+      <c r="J8" s="166"/>
+      <c r="K8" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="159"/>
-      <c r="M8" s="158" t="s">
+      <c r="L8" s="166"/>
+      <c r="M8" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="160"/>
-      <c r="O8" s="160"/>
-      <c r="P8" s="160"/>
-      <c r="Q8" s="160"/>
-      <c r="R8" s="160"/>
-      <c r="S8" s="160"/>
-      <c r="T8" s="160"/>
-      <c r="U8" s="160"/>
-      <c r="V8" s="160"/>
-      <c r="W8" s="160"/>
-      <c r="X8" s="160"/>
-      <c r="Y8" s="160"/>
-      <c r="Z8" s="160"/>
-      <c r="AA8" s="160"/>
-      <c r="AB8" s="160"/>
-      <c r="AC8" s="160"/>
-      <c r="AD8" s="160"/>
-      <c r="AE8" s="160"/>
-      <c r="AF8" s="160"/>
-      <c r="AG8" s="159"/>
-      <c r="AH8" s="158" t="s">
+      <c r="N8" s="167"/>
+      <c r="O8" s="167"/>
+      <c r="P8" s="167"/>
+      <c r="Q8" s="167"/>
+      <c r="R8" s="167"/>
+      <c r="S8" s="167"/>
+      <c r="T8" s="167"/>
+      <c r="U8" s="167"/>
+      <c r="V8" s="167"/>
+      <c r="W8" s="167"/>
+      <c r="X8" s="167"/>
+      <c r="Y8" s="167"/>
+      <c r="Z8" s="167"/>
+      <c r="AA8" s="167"/>
+      <c r="AB8" s="167"/>
+      <c r="AC8" s="167"/>
+      <c r="AD8" s="167"/>
+      <c r="AE8" s="167"/>
+      <c r="AF8" s="167"/>
+      <c r="AG8" s="166"/>
+      <c r="AH8" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="AI8" s="160"/>
-      <c r="AJ8" s="160"/>
-      <c r="AK8" s="160"/>
-      <c r="AL8" s="160"/>
-      <c r="AM8" s="160"/>
-      <c r="AN8" s="160"/>
-      <c r="AO8" s="160"/>
-      <c r="AP8" s="160"/>
-      <c r="AQ8" s="159"/>
+      <c r="AI8" s="167"/>
+      <c r="AJ8" s="167"/>
+      <c r="AK8" s="167"/>
+      <c r="AL8" s="167"/>
+      <c r="AM8" s="167"/>
+      <c r="AN8" s="167"/>
+      <c r="AO8" s="167"/>
+      <c r="AP8" s="167"/>
+      <c r="AQ8" s="166"/>
       <c r="AR8" s="39"/>
       <c r="AS8" s="39"/>
     </row>
     <row r="9" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I9" s="134">
+      <c r="I9" s="141">
         <v>45929</v>
       </c>
-      <c r="J9" s="135"/>
-      <c r="K9" s="122" t="s">
+      <c r="J9" s="142"/>
+      <c r="K9" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="123"/>
-      <c r="M9" s="125" t="s">
+      <c r="L9" s="130"/>
+      <c r="M9" s="132" t="s">
         <v>194</v>
       </c>
-      <c r="N9" s="126"/>
-      <c r="O9" s="126"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="126"/>
-      <c r="S9" s="126"/>
-      <c r="T9" s="126"/>
-      <c r="U9" s="126"/>
-      <c r="V9" s="126"/>
-      <c r="W9" s="126"/>
-      <c r="X9" s="126"/>
-      <c r="Y9" s="126"/>
-      <c r="Z9" s="126"/>
-      <c r="AA9" s="126"/>
-      <c r="AB9" s="126"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="126"/>
-      <c r="AE9" s="126"/>
-      <c r="AF9" s="126"/>
-      <c r="AG9" s="127"/>
-      <c r="AH9" s="125" t="s">
+      <c r="N9" s="133"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="133"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="133"/>
+      <c r="T9" s="133"/>
+      <c r="U9" s="133"/>
+      <c r="V9" s="133"/>
+      <c r="W9" s="133"/>
+      <c r="X9" s="133"/>
+      <c r="Y9" s="133"/>
+      <c r="Z9" s="133"/>
+      <c r="AA9" s="133"/>
+      <c r="AB9" s="133"/>
+      <c r="AC9" s="133"/>
+      <c r="AD9" s="133"/>
+      <c r="AE9" s="133"/>
+      <c r="AF9" s="133"/>
+      <c r="AG9" s="134"/>
+      <c r="AH9" s="132" t="s">
         <v>183</v>
       </c>
-      <c r="AI9" s="126"/>
-      <c r="AJ9" s="126"/>
-      <c r="AK9" s="126"/>
-      <c r="AL9" s="126"/>
-      <c r="AM9" s="126"/>
-      <c r="AN9" s="126"/>
-      <c r="AO9" s="126"/>
-      <c r="AP9" s="126"/>
-      <c r="AQ9" s="127"/>
+      <c r="AI9" s="133"/>
+      <c r="AJ9" s="133"/>
+      <c r="AK9" s="133"/>
+      <c r="AL9" s="133"/>
+      <c r="AM9" s="133"/>
+      <c r="AN9" s="133"/>
+      <c r="AO9" s="133"/>
+      <c r="AP9" s="133"/>
+      <c r="AQ9" s="134"/>
       <c r="AR9" s="39"/>
       <c r="AS9" s="39"/>
     </row>
     <row r="10" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="120"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="124"/>
-      <c r="Q10" s="124"/>
-      <c r="R10" s="124"/>
-      <c r="S10" s="124"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="124"/>
-      <c r="AA10" s="124"/>
-      <c r="AB10" s="124"/>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="124"/>
-      <c r="AE10" s="124"/>
-      <c r="AF10" s="124"/>
-      <c r="AG10" s="121"/>
-      <c r="AH10" s="125"/>
-      <c r="AI10" s="126"/>
-      <c r="AJ10" s="126"/>
-      <c r="AK10" s="126"/>
-      <c r="AL10" s="126"/>
-      <c r="AM10" s="126"/>
-      <c r="AN10" s="126"/>
-      <c r="AO10" s="126"/>
-      <c r="AP10" s="126"/>
-      <c r="AQ10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="131"/>
+      <c r="P10" s="131"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="131"/>
+      <c r="S10" s="131"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="131"/>
+      <c r="Z10" s="131"/>
+      <c r="AA10" s="131"/>
+      <c r="AB10" s="131"/>
+      <c r="AC10" s="131"/>
+      <c r="AD10" s="131"/>
+      <c r="AE10" s="131"/>
+      <c r="AF10" s="131"/>
+      <c r="AG10" s="128"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="133"/>
+      <c r="AJ10" s="133"/>
+      <c r="AK10" s="133"/>
+      <c r="AL10" s="133"/>
+      <c r="AM10" s="133"/>
+      <c r="AN10" s="133"/>
+      <c r="AO10" s="133"/>
+      <c r="AP10" s="133"/>
+      <c r="AQ10" s="134"/>
       <c r="AR10" s="39"/>
       <c r="AS10" s="39"/>
     </row>
     <row r="11" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="124"/>
-      <c r="Q11" s="124"/>
-      <c r="R11" s="124"/>
-      <c r="S11" s="124"/>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="124"/>
-      <c r="W11" s="124"/>
-      <c r="X11" s="124"/>
-      <c r="Y11" s="124"/>
-      <c r="Z11" s="124"/>
-      <c r="AA11" s="124"/>
-      <c r="AB11" s="124"/>
-      <c r="AC11" s="124"/>
-      <c r="AD11" s="124"/>
-      <c r="AE11" s="124"/>
-      <c r="AF11" s="124"/>
-      <c r="AG11" s="121"/>
-      <c r="AH11" s="125"/>
-      <c r="AI11" s="126"/>
-      <c r="AJ11" s="126"/>
-      <c r="AK11" s="126"/>
-      <c r="AL11" s="126"/>
-      <c r="AM11" s="126"/>
-      <c r="AN11" s="126"/>
-      <c r="AO11" s="126"/>
-      <c r="AP11" s="126"/>
-      <c r="AQ11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="131"/>
+      <c r="S11" s="131"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="131"/>
+      <c r="V11" s="131"/>
+      <c r="W11" s="131"/>
+      <c r="X11" s="131"/>
+      <c r="Y11" s="131"/>
+      <c r="Z11" s="131"/>
+      <c r="AA11" s="131"/>
+      <c r="AB11" s="131"/>
+      <c r="AC11" s="131"/>
+      <c r="AD11" s="131"/>
+      <c r="AE11" s="131"/>
+      <c r="AF11" s="131"/>
+      <c r="AG11" s="128"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="133"/>
+      <c r="AJ11" s="133"/>
+      <c r="AK11" s="133"/>
+      <c r="AL11" s="133"/>
+      <c r="AM11" s="133"/>
+      <c r="AN11" s="133"/>
+      <c r="AO11" s="133"/>
+      <c r="AP11" s="133"/>
+      <c r="AQ11" s="134"/>
       <c r="AR11" s="40"/>
       <c r="AS11" s="40"/>
     </row>
     <row r="12" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I12" s="134"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="137"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="126"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="126"/>
-      <c r="S12" s="126"/>
-      <c r="T12" s="126"/>
-      <c r="U12" s="126"/>
-      <c r="V12" s="126"/>
-      <c r="W12" s="126"/>
-      <c r="X12" s="126"/>
-      <c r="Y12" s="126"/>
-      <c r="Z12" s="126"/>
-      <c r="AA12" s="126"/>
-      <c r="AB12" s="126"/>
-      <c r="AC12" s="126"/>
-      <c r="AD12" s="126"/>
-      <c r="AE12" s="126"/>
-      <c r="AF12" s="126"/>
-      <c r="AG12" s="127"/>
-      <c r="AH12" s="125"/>
-      <c r="AI12" s="126"/>
-      <c r="AJ12" s="126"/>
-      <c r="AK12" s="126"/>
-      <c r="AL12" s="126"/>
-      <c r="AM12" s="126"/>
-      <c r="AN12" s="126"/>
-      <c r="AO12" s="126"/>
-      <c r="AP12" s="126"/>
-      <c r="AQ12" s="127"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="133"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="133"/>
+      <c r="T12" s="133"/>
+      <c r="U12" s="133"/>
+      <c r="V12" s="133"/>
+      <c r="W12" s="133"/>
+      <c r="X12" s="133"/>
+      <c r="Y12" s="133"/>
+      <c r="Z12" s="133"/>
+      <c r="AA12" s="133"/>
+      <c r="AB12" s="133"/>
+      <c r="AC12" s="133"/>
+      <c r="AD12" s="133"/>
+      <c r="AE12" s="133"/>
+      <c r="AF12" s="133"/>
+      <c r="AG12" s="134"/>
+      <c r="AH12" s="132"/>
+      <c r="AI12" s="133"/>
+      <c r="AJ12" s="133"/>
+      <c r="AK12" s="133"/>
+      <c r="AL12" s="133"/>
+      <c r="AM12" s="133"/>
+      <c r="AN12" s="133"/>
+      <c r="AO12" s="133"/>
+      <c r="AP12" s="133"/>
+      <c r="AQ12" s="134"/>
       <c r="AR12" s="40"/>
       <c r="AS12" s="16"/>
     </row>
     <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I13" s="134"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="126"/>
-      <c r="S13" s="126"/>
-      <c r="T13" s="126"/>
-      <c r="U13" s="126"/>
-      <c r="V13" s="126"/>
-      <c r="W13" s="126"/>
-      <c r="X13" s="126"/>
-      <c r="Y13" s="126"/>
-      <c r="Z13" s="126"/>
-      <c r="AA13" s="126"/>
-      <c r="AB13" s="126"/>
-      <c r="AC13" s="126"/>
-      <c r="AD13" s="126"/>
-      <c r="AE13" s="126"/>
-      <c r="AF13" s="126"/>
-      <c r="AG13" s="127"/>
-      <c r="AH13" s="125"/>
-      <c r="AI13" s="126"/>
-      <c r="AJ13" s="126"/>
-      <c r="AK13" s="126"/>
-      <c r="AL13" s="126"/>
-      <c r="AM13" s="126"/>
-      <c r="AN13" s="126"/>
-      <c r="AO13" s="126"/>
-      <c r="AP13" s="126"/>
-      <c r="AQ13" s="127"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="133"/>
+      <c r="O13" s="133"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="133"/>
+      <c r="R13" s="133"/>
+      <c r="S13" s="133"/>
+      <c r="T13" s="133"/>
+      <c r="U13" s="133"/>
+      <c r="V13" s="133"/>
+      <c r="W13" s="133"/>
+      <c r="X13" s="133"/>
+      <c r="Y13" s="133"/>
+      <c r="Z13" s="133"/>
+      <c r="AA13" s="133"/>
+      <c r="AB13" s="133"/>
+      <c r="AC13" s="133"/>
+      <c r="AD13" s="133"/>
+      <c r="AE13" s="133"/>
+      <c r="AF13" s="133"/>
+      <c r="AG13" s="134"/>
+      <c r="AH13" s="132"/>
+      <c r="AI13" s="133"/>
+      <c r="AJ13" s="133"/>
+      <c r="AK13" s="133"/>
+      <c r="AL13" s="133"/>
+      <c r="AM13" s="133"/>
+      <c r="AN13" s="133"/>
+      <c r="AO13" s="133"/>
+      <c r="AP13" s="133"/>
+      <c r="AQ13" s="134"/>
       <c r="AR13" s="40"/>
       <c r="AS13" s="16"/>
     </row>
@@ -18706,150 +18849,150 @@
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="131" t="s">
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="138" t="s">
         <v>193</v>
       </c>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="132"/>
-      <c r="R16" s="132"/>
-      <c r="S16" s="132"/>
-      <c r="T16" s="132"/>
-      <c r="U16" s="132"/>
-      <c r="V16" s="132"/>
-      <c r="W16" s="132"/>
-      <c r="X16" s="132"/>
-      <c r="Y16" s="132"/>
-      <c r="Z16" s="132"/>
-      <c r="AA16" s="132"/>
-      <c r="AB16" s="132"/>
-      <c r="AC16" s="132"/>
-      <c r="AD16" s="132"/>
-      <c r="AE16" s="132"/>
-      <c r="AF16" s="132"/>
-      <c r="AG16" s="132"/>
-      <c r="AH16" s="132"/>
-      <c r="AI16" s="132"/>
-      <c r="AJ16" s="132"/>
-      <c r="AK16" s="132"/>
-      <c r="AL16" s="132"/>
-      <c r="AM16" s="132"/>
-      <c r="AN16" s="132"/>
-      <c r="AO16" s="132"/>
-      <c r="AP16" s="132"/>
-      <c r="AQ16" s="133"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="139"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="139"/>
+      <c r="T16" s="139"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="139"/>
+      <c r="W16" s="139"/>
+      <c r="X16" s="139"/>
+      <c r="Y16" s="139"/>
+      <c r="Z16" s="139"/>
+      <c r="AA16" s="139"/>
+      <c r="AB16" s="139"/>
+      <c r="AC16" s="139"/>
+      <c r="AD16" s="139"/>
+      <c r="AE16" s="139"/>
+      <c r="AF16" s="139"/>
+      <c r="AG16" s="139"/>
+      <c r="AH16" s="139"/>
+      <c r="AI16" s="139"/>
+      <c r="AJ16" s="139"/>
+      <c r="AK16" s="139"/>
+      <c r="AL16" s="139"/>
+      <c r="AM16" s="139"/>
+      <c r="AN16" s="139"/>
+      <c r="AO16" s="139"/>
+      <c r="AP16" s="139"/>
+      <c r="AQ16" s="140"/>
       <c r="AR16" s="40"/>
       <c r="AS16" s="40"/>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="145"/>
-      <c r="O17" s="145"/>
-      <c r="P17" s="145"/>
-      <c r="Q17" s="145"/>
-      <c r="R17" s="145"/>
-      <c r="S17" s="145"/>
-      <c r="T17" s="145"/>
-      <c r="U17" s="145"/>
-      <c r="V17" s="145"/>
-      <c r="W17" s="145"/>
-      <c r="X17" s="145"/>
-      <c r="Y17" s="145"/>
-      <c r="Z17" s="145"/>
-      <c r="AA17" s="145"/>
-      <c r="AB17" s="145"/>
-      <c r="AC17" s="145"/>
-      <c r="AD17" s="145"/>
-      <c r="AE17" s="145"/>
-      <c r="AF17" s="145"/>
-      <c r="AG17" s="145"/>
-      <c r="AH17" s="145"/>
-      <c r="AI17" s="145"/>
-      <c r="AJ17" s="145"/>
-      <c r="AK17" s="145"/>
-      <c r="AL17" s="145"/>
-      <c r="AM17" s="145"/>
-      <c r="AN17" s="145"/>
-      <c r="AO17" s="145"/>
-      <c r="AP17" s="145"/>
-      <c r="AQ17" s="146"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="152"/>
+      <c r="S17" s="152"/>
+      <c r="T17" s="152"/>
+      <c r="U17" s="152"/>
+      <c r="V17" s="152"/>
+      <c r="W17" s="152"/>
+      <c r="X17" s="152"/>
+      <c r="Y17" s="152"/>
+      <c r="Z17" s="152"/>
+      <c r="AA17" s="152"/>
+      <c r="AB17" s="152"/>
+      <c r="AC17" s="152"/>
+      <c r="AD17" s="152"/>
+      <c r="AE17" s="152"/>
+      <c r="AF17" s="152"/>
+      <c r="AG17" s="152"/>
+      <c r="AH17" s="152"/>
+      <c r="AI17" s="152"/>
+      <c r="AJ17" s="152"/>
+      <c r="AK17" s="152"/>
+      <c r="AL17" s="152"/>
+      <c r="AM17" s="152"/>
+      <c r="AN17" s="152"/>
+      <c r="AO17" s="152"/>
+      <c r="AP17" s="152"/>
+      <c r="AQ17" s="153"/>
       <c r="AR17" s="43"/>
       <c r="AS17" s="43"/>
     </row>
     <row r="18" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="165"/>
-      <c r="L18" s="165"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="165"/>
-      <c r="P18" s="165"/>
-      <c r="Q18" s="165"/>
-      <c r="R18" s="165"/>
-      <c r="S18" s="165"/>
-      <c r="T18" s="165"/>
-      <c r="U18" s="165"/>
-      <c r="V18" s="165"/>
-      <c r="W18" s="165"/>
-      <c r="X18" s="165"/>
-      <c r="Y18" s="165"/>
-      <c r="Z18" s="165"/>
-      <c r="AA18" s="165"/>
-      <c r="AB18" s="165"/>
-      <c r="AC18" s="165"/>
-      <c r="AD18" s="165"/>
-      <c r="AE18" s="165"/>
-      <c r="AF18" s="165"/>
-      <c r="AG18" s="165"/>
-      <c r="AH18" s="165"/>
-      <c r="AI18" s="165"/>
-      <c r="AJ18" s="165"/>
-      <c r="AK18" s="165"/>
-      <c r="AL18" s="165"/>
-      <c r="AM18" s="165"/>
-      <c r="AN18" s="165"/>
-      <c r="AO18" s="165"/>
-      <c r="AP18" s="165"/>
-      <c r="AQ18" s="166"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="171"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="172"/>
+      <c r="O18" s="172"/>
+      <c r="P18" s="172"/>
+      <c r="Q18" s="172"/>
+      <c r="R18" s="172"/>
+      <c r="S18" s="172"/>
+      <c r="T18" s="172"/>
+      <c r="U18" s="172"/>
+      <c r="V18" s="172"/>
+      <c r="W18" s="172"/>
+      <c r="X18" s="172"/>
+      <c r="Y18" s="172"/>
+      <c r="Z18" s="172"/>
+      <c r="AA18" s="172"/>
+      <c r="AB18" s="172"/>
+      <c r="AC18" s="172"/>
+      <c r="AD18" s="172"/>
+      <c r="AE18" s="172"/>
+      <c r="AF18" s="172"/>
+      <c r="AG18" s="172"/>
+      <c r="AH18" s="172"/>
+      <c r="AI18" s="172"/>
+      <c r="AJ18" s="172"/>
+      <c r="AK18" s="172"/>
+      <c r="AL18" s="172"/>
+      <c r="AM18" s="172"/>
+      <c r="AN18" s="172"/>
+      <c r="AO18" s="172"/>
+      <c r="AP18" s="172"/>
+      <c r="AQ18" s="173"/>
       <c r="AR18" s="43"/>
       <c r="AS18" s="43"/>
     </row>
@@ -18987,292 +19130,292 @@
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B23" s="138" t="s">
+      <c r="B23" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="141" t="s">
+      <c r="C23" s="146"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="142"/>
-      <c r="N23" s="142"/>
-      <c r="O23" s="142"/>
-      <c r="P23" s="142"/>
-      <c r="Q23" s="142"/>
-      <c r="R23" s="142"/>
-      <c r="S23" s="142"/>
-      <c r="T23" s="142"/>
-      <c r="U23" s="142"/>
-      <c r="V23" s="142"/>
-      <c r="W23" s="142"/>
-      <c r="X23" s="142"/>
-      <c r="Y23" s="142"/>
-      <c r="Z23" s="142"/>
-      <c r="AA23" s="142"/>
-      <c r="AB23" s="142"/>
-      <c r="AC23" s="142"/>
-      <c r="AD23" s="142"/>
-      <c r="AE23" s="142"/>
-      <c r="AF23" s="142"/>
-      <c r="AG23" s="142"/>
-      <c r="AH23" s="142"/>
-      <c r="AI23" s="142"/>
-      <c r="AJ23" s="142"/>
-      <c r="AK23" s="142"/>
-      <c r="AL23" s="142"/>
-      <c r="AM23" s="142"/>
-      <c r="AN23" s="142"/>
-      <c r="AO23" s="142"/>
-      <c r="AP23" s="142"/>
-      <c r="AQ23" s="143"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="149"/>
+      <c r="K23" s="149"/>
+      <c r="L23" s="149"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="149"/>
+      <c r="O23" s="149"/>
+      <c r="P23" s="149"/>
+      <c r="Q23" s="149"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="149"/>
+      <c r="T23" s="149"/>
+      <c r="U23" s="149"/>
+      <c r="V23" s="149"/>
+      <c r="W23" s="149"/>
+      <c r="X23" s="149"/>
+      <c r="Y23" s="149"/>
+      <c r="Z23" s="149"/>
+      <c r="AA23" s="149"/>
+      <c r="AB23" s="149"/>
+      <c r="AC23" s="149"/>
+      <c r="AD23" s="149"/>
+      <c r="AE23" s="149"/>
+      <c r="AF23" s="149"/>
+      <c r="AG23" s="149"/>
+      <c r="AH23" s="149"/>
+      <c r="AI23" s="149"/>
+      <c r="AJ23" s="149"/>
+      <c r="AK23" s="149"/>
+      <c r="AL23" s="149"/>
+      <c r="AM23" s="149"/>
+      <c r="AN23" s="149"/>
+      <c r="AO23" s="149"/>
+      <c r="AP23" s="149"/>
+      <c r="AQ23" s="150"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B24" s="147" t="s">
+      <c r="B24" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="148"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="103" t="s">
+      <c r="C24" s="155"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="104"/>
-      <c r="S24" s="104"/>
-      <c r="T24" s="104"/>
-      <c r="U24" s="104"/>
-      <c r="V24" s="104"/>
-      <c r="W24" s="104"/>
-      <c r="X24" s="104"/>
-      <c r="Y24" s="104"/>
-      <c r="Z24" s="104"/>
-      <c r="AA24" s="104"/>
-      <c r="AB24" s="104"/>
-      <c r="AC24" s="104"/>
-      <c r="AD24" s="104"/>
-      <c r="AE24" s="104"/>
-      <c r="AF24" s="104"/>
-      <c r="AG24" s="104"/>
-      <c r="AH24" s="104"/>
-      <c r="AI24" s="104"/>
-      <c r="AJ24" s="104"/>
-      <c r="AK24" s="104"/>
-      <c r="AL24" s="104"/>
-      <c r="AM24" s="104"/>
-      <c r="AN24" s="104"/>
-      <c r="AO24" s="104"/>
-      <c r="AP24" s="104"/>
-      <c r="AQ24" s="105"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="113"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="113"/>
+      <c r="S24" s="113"/>
+      <c r="T24" s="113"/>
+      <c r="U24" s="113"/>
+      <c r="V24" s="113"/>
+      <c r="W24" s="113"/>
+      <c r="X24" s="113"/>
+      <c r="Y24" s="113"/>
+      <c r="Z24" s="113"/>
+      <c r="AA24" s="113"/>
+      <c r="AB24" s="113"/>
+      <c r="AC24" s="113"/>
+      <c r="AD24" s="113"/>
+      <c r="AE24" s="113"/>
+      <c r="AF24" s="113"/>
+      <c r="AG24" s="113"/>
+      <c r="AH24" s="113"/>
+      <c r="AI24" s="113"/>
+      <c r="AJ24" s="113"/>
+      <c r="AK24" s="113"/>
+      <c r="AL24" s="113"/>
+      <c r="AM24" s="113"/>
+      <c r="AN24" s="113"/>
+      <c r="AO24" s="113"/>
+      <c r="AP24" s="113"/>
+      <c r="AQ24" s="114"/>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B25" s="147" t="s">
+      <c r="B25" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="148"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="103" t="s">
+      <c r="C25" s="155"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="I25" s="104"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="104"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="104"/>
-      <c r="S25" s="104"/>
-      <c r="T25" s="104"/>
-      <c r="U25" s="104"/>
-      <c r="V25" s="104"/>
-      <c r="W25" s="104"/>
-      <c r="X25" s="104"/>
-      <c r="Y25" s="104"/>
-      <c r="Z25" s="104"/>
-      <c r="AA25" s="104"/>
-      <c r="AB25" s="104"/>
-      <c r="AC25" s="104"/>
-      <c r="AD25" s="104"/>
-      <c r="AE25" s="104"/>
-      <c r="AF25" s="104"/>
-      <c r="AG25" s="104"/>
-      <c r="AH25" s="104"/>
-      <c r="AI25" s="104"/>
-      <c r="AJ25" s="104"/>
-      <c r="AK25" s="104"/>
-      <c r="AL25" s="104"/>
-      <c r="AM25" s="104"/>
-      <c r="AN25" s="104"/>
-      <c r="AO25" s="104"/>
-      <c r="AP25" s="104"/>
-      <c r="AQ25" s="105"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="113"/>
+      <c r="Q25" s="113"/>
+      <c r="R25" s="113"/>
+      <c r="S25" s="113"/>
+      <c r="T25" s="113"/>
+      <c r="U25" s="113"/>
+      <c r="V25" s="113"/>
+      <c r="W25" s="113"/>
+      <c r="X25" s="113"/>
+      <c r="Y25" s="113"/>
+      <c r="Z25" s="113"/>
+      <c r="AA25" s="113"/>
+      <c r="AB25" s="113"/>
+      <c r="AC25" s="113"/>
+      <c r="AD25" s="113"/>
+      <c r="AE25" s="113"/>
+      <c r="AF25" s="113"/>
+      <c r="AG25" s="113"/>
+      <c r="AH25" s="113"/>
+      <c r="AI25" s="113"/>
+      <c r="AJ25" s="113"/>
+      <c r="AK25" s="113"/>
+      <c r="AL25" s="113"/>
+      <c r="AM25" s="113"/>
+      <c r="AN25" s="113"/>
+      <c r="AO25" s="113"/>
+      <c r="AP25" s="113"/>
+      <c r="AQ25" s="114"/>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B26" s="147" t="s">
+      <c r="B26" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="103" t="s">
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="104"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="104"/>
-      <c r="S26" s="104"/>
-      <c r="T26" s="104"/>
-      <c r="U26" s="104"/>
-      <c r="V26" s="104"/>
-      <c r="W26" s="104"/>
-      <c r="X26" s="104"/>
-      <c r="Y26" s="104"/>
-      <c r="Z26" s="104"/>
-      <c r="AA26" s="104"/>
-      <c r="AB26" s="104"/>
-      <c r="AC26" s="104"/>
-      <c r="AD26" s="104"/>
-      <c r="AE26" s="104"/>
-      <c r="AF26" s="104"/>
-      <c r="AG26" s="104"/>
-      <c r="AH26" s="104"/>
-      <c r="AI26" s="104"/>
-      <c r="AJ26" s="104"/>
-      <c r="AK26" s="104"/>
-      <c r="AL26" s="104"/>
-      <c r="AM26" s="104"/>
-      <c r="AN26" s="104"/>
-      <c r="AO26" s="104"/>
-      <c r="AP26" s="104"/>
-      <c r="AQ26" s="105"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="113"/>
+      <c r="Q26" s="113"/>
+      <c r="R26" s="113"/>
+      <c r="S26" s="113"/>
+      <c r="T26" s="113"/>
+      <c r="U26" s="113"/>
+      <c r="V26" s="113"/>
+      <c r="W26" s="113"/>
+      <c r="X26" s="113"/>
+      <c r="Y26" s="113"/>
+      <c r="Z26" s="113"/>
+      <c r="AA26" s="113"/>
+      <c r="AB26" s="113"/>
+      <c r="AC26" s="113"/>
+      <c r="AD26" s="113"/>
+      <c r="AE26" s="113"/>
+      <c r="AF26" s="113"/>
+      <c r="AG26" s="113"/>
+      <c r="AH26" s="113"/>
+      <c r="AI26" s="113"/>
+      <c r="AJ26" s="113"/>
+      <c r="AK26" s="113"/>
+      <c r="AL26" s="113"/>
+      <c r="AM26" s="113"/>
+      <c r="AN26" s="113"/>
+      <c r="AO26" s="113"/>
+      <c r="AP26" s="113"/>
+      <c r="AQ26" s="114"/>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="103" t="s">
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="104"/>
-      <c r="N27" s="104"/>
-      <c r="O27" s="104"/>
-      <c r="P27" s="104"/>
-      <c r="Q27" s="104"/>
-      <c r="R27" s="104"/>
-      <c r="S27" s="104"/>
-      <c r="T27" s="104"/>
-      <c r="U27" s="104"/>
-      <c r="V27" s="104"/>
-      <c r="W27" s="104"/>
-      <c r="X27" s="104"/>
-      <c r="Y27" s="104"/>
-      <c r="Z27" s="104"/>
-      <c r="AA27" s="104"/>
-      <c r="AB27" s="104"/>
-      <c r="AC27" s="104"/>
-      <c r="AD27" s="104"/>
-      <c r="AE27" s="104"/>
-      <c r="AF27" s="104"/>
-      <c r="AG27" s="104"/>
-      <c r="AH27" s="104"/>
-      <c r="AI27" s="104"/>
-      <c r="AJ27" s="104"/>
-      <c r="AK27" s="104"/>
-      <c r="AL27" s="104"/>
-      <c r="AM27" s="104"/>
-      <c r="AN27" s="104"/>
-      <c r="AO27" s="104"/>
-      <c r="AP27" s="104"/>
-      <c r="AQ27" s="105"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="113"/>
+      <c r="Q27" s="113"/>
+      <c r="R27" s="113"/>
+      <c r="S27" s="113"/>
+      <c r="T27" s="113"/>
+      <c r="U27" s="113"/>
+      <c r="V27" s="113"/>
+      <c r="W27" s="113"/>
+      <c r="X27" s="113"/>
+      <c r="Y27" s="113"/>
+      <c r="Z27" s="113"/>
+      <c r="AA27" s="113"/>
+      <c r="AB27" s="113"/>
+      <c r="AC27" s="113"/>
+      <c r="AD27" s="113"/>
+      <c r="AE27" s="113"/>
+      <c r="AF27" s="113"/>
+      <c r="AG27" s="113"/>
+      <c r="AH27" s="113"/>
+      <c r="AI27" s="113"/>
+      <c r="AJ27" s="113"/>
+      <c r="AK27" s="113"/>
+      <c r="AL27" s="113"/>
+      <c r="AM27" s="113"/>
+      <c r="AN27" s="113"/>
+      <c r="AO27" s="113"/>
+      <c r="AP27" s="113"/>
+      <c r="AQ27" s="114"/>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B28" s="150" t="s">
+      <c r="B28" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="103" t="s">
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="104"/>
-      <c r="N28" s="104"/>
-      <c r="O28" s="104"/>
-      <c r="P28" s="104"/>
-      <c r="Q28" s="104"/>
-      <c r="R28" s="104"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="104"/>
-      <c r="U28" s="104"/>
-      <c r="V28" s="104"/>
-      <c r="W28" s="104"/>
-      <c r="X28" s="104"/>
-      <c r="Y28" s="104"/>
-      <c r="Z28" s="104"/>
-      <c r="AA28" s="104"/>
-      <c r="AB28" s="104"/>
-      <c r="AC28" s="104"/>
-      <c r="AD28" s="104"/>
-      <c r="AE28" s="104"/>
-      <c r="AF28" s="104"/>
-      <c r="AG28" s="104"/>
-      <c r="AH28" s="104"/>
-      <c r="AI28" s="104"/>
-      <c r="AJ28" s="104"/>
-      <c r="AK28" s="104"/>
-      <c r="AL28" s="104"/>
-      <c r="AM28" s="104"/>
-      <c r="AN28" s="104"/>
-      <c r="AO28" s="104"/>
-      <c r="AP28" s="104"/>
-      <c r="AQ28" s="105"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="113"/>
+      <c r="Q28" s="113"/>
+      <c r="R28" s="113"/>
+      <c r="S28" s="113"/>
+      <c r="T28" s="113"/>
+      <c r="U28" s="113"/>
+      <c r="V28" s="113"/>
+      <c r="W28" s="113"/>
+      <c r="X28" s="113"/>
+      <c r="Y28" s="113"/>
+      <c r="Z28" s="113"/>
+      <c r="AA28" s="113"/>
+      <c r="AB28" s="113"/>
+      <c r="AC28" s="113"/>
+      <c r="AD28" s="113"/>
+      <c r="AE28" s="113"/>
+      <c r="AF28" s="113"/>
+      <c r="AG28" s="113"/>
+      <c r="AH28" s="113"/>
+      <c r="AI28" s="113"/>
+      <c r="AJ28" s="113"/>
+      <c r="AK28" s="113"/>
+      <c r="AL28" s="113"/>
+      <c r="AM28" s="113"/>
+      <c r="AN28" s="113"/>
+      <c r="AO28" s="113"/>
+      <c r="AP28" s="113"/>
+      <c r="AQ28" s="114"/>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B29" s="8"/>
@@ -19346,7 +19489,7 @@
         <v>24</v>
       </c>
       <c r="T30" s="13"/>
-      <c r="U30" s="72" t="s">
+      <c r="U30" s="71" t="s">
         <v>182</v>
       </c>
       <c r="V30" s="13"/>
@@ -19354,7 +19497,7 @@
         <v>25</v>
       </c>
       <c r="X30" s="13"/>
-      <c r="Y30" s="72" t="s">
+      <c r="Y30" s="71" t="s">
         <v>182</v>
       </c>
       <c r="Z30" s="13"/>
@@ -19362,11 +19505,11 @@
         <v>26</v>
       </c>
       <c r="AD30" s="11"/>
-      <c r="AF30" s="98" t="s">
+      <c r="AF30" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="AG30" s="98"/>
-      <c r="AH30" s="99"/>
+      <c r="AG30" s="107"/>
+      <c r="AH30" s="108"/>
       <c r="AI30" s="11"/>
       <c r="AK30" s="6" t="s">
         <v>19</v>
@@ -19511,26 +19654,26 @@
     </row>
     <row r="34" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
-      <c r="B34" s="153" t="s">
+      <c r="B34" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="89" t="s">
+      <c r="C34" s="161"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="162"/>
+      <c r="J34" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="K34" s="90"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="95" t="s">
+      <c r="K34" s="99"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="N34" s="96"/>
-      <c r="O34" s="97"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="106"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
@@ -19562,27 +19705,27 @@
     </row>
     <row r="35" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
-      <c r="B35" s="117" t="s">
+      <c r="B35" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="75">
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="74">
         <v>49</v>
       </c>
-      <c r="K35" s="76"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="78">
+      <c r="K35" s="75"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="77">
         <f>ROUND((J35/$J$39)*100,0)</f>
         <v>100</v>
       </c>
-      <c r="N35" s="79"/>
-      <c r="O35" s="80"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="79"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
@@ -19614,27 +19757,27 @@
     </row>
     <row r="36" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="75">
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="74">
         <v>0</v>
       </c>
-      <c r="K36" s="76"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="78">
+      <c r="K36" s="75"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="77">
         <f t="shared" ref="M36:M39" si="0">ROUND((J36/$J$39)*100,0)</f>
         <v>0</v>
       </c>
-      <c r="N36" s="79"/>
-      <c r="O36" s="80"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="79"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
@@ -19666,27 +19809,27 @@
     </row>
     <row r="37" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="75">
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="74">
         <v>0</v>
       </c>
-      <c r="K37" s="76"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="78">
+      <c r="K37" s="75"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N37" s="79"/>
-      <c r="O37" s="80"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="79"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
@@ -19718,27 +19861,27 @@
     </row>
     <row r="38" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="75">
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="74">
         <v>0</v>
       </c>
-      <c r="K38" s="76"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="78">
+      <c r="K38" s="75"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N38" s="79"/>
-      <c r="O38" s="80"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="79"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
@@ -19770,28 +19913,28 @@
     </row>
     <row r="39" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
-      <c r="B39" s="92" t="s">
+      <c r="B39" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="89">
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="98">
         <f>SUM(J35:L38)</f>
         <v>49</v>
       </c>
-      <c r="K39" s="90"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="78">
+      <c r="K39" s="99"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="77">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="N39" s="79"/>
-      <c r="O39" s="80"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="79"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
@@ -19957,68 +20100,68 @@
       <c r="AX42" s="4"/>
     </row>
     <row r="43" spans="1:50" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="108" t="s">
+      <c r="B43" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="82"/>
-      <c r="D43" s="81" t="s">
+      <c r="C43" s="89"/>
+      <c r="D43" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="82"/>
-      <c r="F43" s="81" t="s">
+      <c r="E43" s="89"/>
+      <c r="F43" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="82"/>
-      <c r="H43" s="81" t="s">
+      <c r="G43" s="89"/>
+      <c r="H43" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81" t="s">
+      <c r="I43" s="88"/>
+      <c r="J43" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="81" t="s">
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="N43" s="81"/>
-      <c r="O43" s="81"/>
-      <c r="P43" s="81" t="s">
+      <c r="N43" s="88"/>
+      <c r="O43" s="88"/>
+      <c r="P43" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="Q43" s="81"/>
-      <c r="R43" s="81"/>
-      <c r="S43" s="81" t="s">
+      <c r="Q43" s="88"/>
+      <c r="R43" s="88"/>
+      <c r="S43" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="T43" s="81"/>
-      <c r="U43" s="81" t="s">
+      <c r="T43" s="88"/>
+      <c r="U43" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="V43" s="81"/>
-      <c r="W43" s="81"/>
-      <c r="X43" s="81"/>
-      <c r="Y43" s="81"/>
-      <c r="Z43" s="81"/>
-      <c r="AA43" s="81" t="s">
+      <c r="V43" s="88"/>
+      <c r="W43" s="88"/>
+      <c r="X43" s="88"/>
+      <c r="Y43" s="88"/>
+      <c r="Z43" s="88"/>
+      <c r="AA43" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="AB43" s="81"/>
-      <c r="AC43" s="81"/>
-      <c r="AD43" s="81"/>
-      <c r="AE43" s="81"/>
-      <c r="AF43" s="81"/>
-      <c r="AG43" s="81"/>
-      <c r="AH43" s="81"/>
-      <c r="AI43" s="81"/>
-      <c r="AJ43" s="81"/>
-      <c r="AK43" s="81"/>
-      <c r="AL43" s="81"/>
-      <c r="AM43" s="81"/>
-      <c r="AN43" s="81"/>
-      <c r="AO43" s="81"/>
-      <c r="AP43" s="81"/>
-      <c r="AQ43" s="81"/>
+      <c r="AB43" s="88"/>
+      <c r="AC43" s="88"/>
+      <c r="AD43" s="88"/>
+      <c r="AE43" s="88"/>
+      <c r="AF43" s="88"/>
+      <c r="AG43" s="88"/>
+      <c r="AH43" s="88"/>
+      <c r="AI43" s="88"/>
+      <c r="AJ43" s="88"/>
+      <c r="AK43" s="88"/>
+      <c r="AL43" s="88"/>
+      <c r="AM43" s="88"/>
+      <c r="AN43" s="88"/>
+      <c r="AO43" s="88"/>
+      <c r="AP43" s="88"/>
+      <c r="AQ43" s="88"/>
       <c r="AR43" s="38" t="s">
         <v>48</v>
       </c>
@@ -20042,2212 +20185,2212 @@
       </c>
     </row>
     <row r="44" spans="1:50" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="112" t="s">
+      <c r="B44" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="113"/>
-      <c r="D44" s="114" t="s">
+      <c r="C44" s="91"/>
+      <c r="D44" s="174" t="s">
         <v>135</v>
       </c>
-      <c r="E44" s="113"/>
-      <c r="F44" s="115" t="s">
+      <c r="E44" s="175"/>
+      <c r="F44" s="176" t="s">
+        <v>195</v>
+      </c>
+      <c r="G44" s="177"/>
+      <c r="H44" s="178" t="s">
+        <v>196</v>
+      </c>
+      <c r="I44" s="179"/>
+      <c r="J44" s="180" t="s">
+        <v>198</v>
+      </c>
+      <c r="K44" s="180"/>
+      <c r="L44" s="180"/>
+      <c r="M44" s="175">
+        <v>2</v>
+      </c>
+      <c r="N44" s="175"/>
+      <c r="O44" s="175"/>
+      <c r="P44" s="175">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="175"/>
+      <c r="R44" s="175"/>
+      <c r="S44" s="181">
+        <v>3</v>
+      </c>
+      <c r="T44" s="182"/>
+      <c r="U44" s="183" t="s">
+        <v>200</v>
+      </c>
+      <c r="V44" s="184"/>
+      <c r="W44" s="184"/>
+      <c r="X44" s="184"/>
+      <c r="Y44" s="184"/>
+      <c r="Z44" s="185"/>
+      <c r="AA44" s="186" t="s">
         <v>197</v>
       </c>
-      <c r="G44" s="116"/>
-      <c r="H44" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I44" s="171"/>
-      <c r="J44" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K44" s="172"/>
-      <c r="L44" s="172"/>
-      <c r="M44" s="113">
-        <v>2</v>
-      </c>
-      <c r="N44" s="113"/>
-      <c r="O44" s="113"/>
-      <c r="P44" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="113"/>
-      <c r="R44" s="113"/>
-      <c r="S44" s="173">
-        <v>3</v>
-      </c>
-      <c r="T44" s="174"/>
-      <c r="U44" s="167" t="s">
-        <v>203</v>
-      </c>
-      <c r="V44" s="168"/>
-      <c r="W44" s="168"/>
-      <c r="X44" s="168"/>
-      <c r="Y44" s="168"/>
-      <c r="Z44" s="169"/>
-      <c r="AA44" s="109" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB44" s="110"/>
-      <c r="AC44" s="110"/>
-      <c r="AD44" s="110"/>
-      <c r="AE44" s="110"/>
-      <c r="AF44" s="110"/>
-      <c r="AG44" s="110"/>
-      <c r="AH44" s="110"/>
-      <c r="AI44" s="110"/>
-      <c r="AJ44" s="110"/>
-      <c r="AK44" s="110"/>
-      <c r="AL44" s="110"/>
-      <c r="AM44" s="110"/>
-      <c r="AN44" s="110"/>
-      <c r="AO44" s="110"/>
-      <c r="AP44" s="110"/>
-      <c r="AQ44" s="111"/>
-      <c r="AR44" s="73" t="s">
+      <c r="AB44" s="187"/>
+      <c r="AC44" s="187"/>
+      <c r="AD44" s="187"/>
+      <c r="AE44" s="187"/>
+      <c r="AF44" s="187"/>
+      <c r="AG44" s="187"/>
+      <c r="AH44" s="187"/>
+      <c r="AI44" s="187"/>
+      <c r="AJ44" s="187"/>
+      <c r="AK44" s="187"/>
+      <c r="AL44" s="187"/>
+      <c r="AM44" s="187"/>
+      <c r="AN44" s="187"/>
+      <c r="AO44" s="187"/>
+      <c r="AP44" s="187"/>
+      <c r="AQ44" s="188"/>
+      <c r="AR44" s="189" t="s">
         <v>156</v>
       </c>
-      <c r="AS44" s="73" t="s">
+      <c r="AS44" s="189" t="s">
         <v>152</v>
       </c>
-      <c r="AT44" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU44" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV44" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW44" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX44" s="74" t="s">
+      <c r="AT44" s="190" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU44" s="190" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV44" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW44" s="192" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX44" s="193" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="112" t="s">
+      <c r="B45" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="C45" s="113"/>
-      <c r="D45" s="114" t="s">
+      <c r="C45" s="91"/>
+      <c r="D45" s="174" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="113"/>
-      <c r="F45" s="115" t="s">
+      <c r="E45" s="175"/>
+      <c r="F45" s="176" t="s">
+        <v>195</v>
+      </c>
+      <c r="G45" s="177"/>
+      <c r="H45" s="178" t="s">
+        <v>196</v>
+      </c>
+      <c r="I45" s="179"/>
+      <c r="J45" s="180" t="s">
+        <v>198</v>
+      </c>
+      <c r="K45" s="180"/>
+      <c r="L45" s="180"/>
+      <c r="M45" s="175">
+        <v>2</v>
+      </c>
+      <c r="N45" s="175"/>
+      <c r="O45" s="175"/>
+      <c r="P45" s="175">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="175"/>
+      <c r="R45" s="175"/>
+      <c r="S45" s="181">
+        <v>3</v>
+      </c>
+      <c r="T45" s="182"/>
+      <c r="U45" s="194" t="s">
+        <v>201</v>
+      </c>
+      <c r="V45" s="184"/>
+      <c r="W45" s="184"/>
+      <c r="X45" s="184"/>
+      <c r="Y45" s="184"/>
+      <c r="Z45" s="185"/>
+      <c r="AA45" s="186" t="s">
         <v>197</v>
       </c>
-      <c r="G45" s="116"/>
-      <c r="H45" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I45" s="171"/>
-      <c r="J45" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K45" s="172"/>
-      <c r="L45" s="172"/>
-      <c r="M45" s="113">
-        <v>2</v>
-      </c>
-      <c r="N45" s="113"/>
-      <c r="O45" s="113"/>
-      <c r="P45" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="113"/>
-      <c r="R45" s="113"/>
-      <c r="S45" s="173">
-        <v>3</v>
-      </c>
-      <c r="T45" s="174"/>
-      <c r="U45" s="167" t="s">
-        <v>204</v>
-      </c>
-      <c r="V45" s="168"/>
-      <c r="W45" s="168"/>
-      <c r="X45" s="168"/>
-      <c r="Y45" s="168"/>
-      <c r="Z45" s="169"/>
-      <c r="AA45" s="109" t="s">
+      <c r="AB45" s="187"/>
+      <c r="AC45" s="187"/>
+      <c r="AD45" s="187"/>
+      <c r="AE45" s="187"/>
+      <c r="AF45" s="187"/>
+      <c r="AG45" s="187"/>
+      <c r="AH45" s="187"/>
+      <c r="AI45" s="187"/>
+      <c r="AJ45" s="187"/>
+      <c r="AK45" s="187"/>
+      <c r="AL45" s="187"/>
+      <c r="AM45" s="187"/>
+      <c r="AN45" s="187"/>
+      <c r="AO45" s="187"/>
+      <c r="AP45" s="187"/>
+      <c r="AQ45" s="188"/>
+      <c r="AR45" s="189" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS45" s="189" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT45" s="190" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU45" s="190" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV45" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW45" s="192" t="s">
         <v>199</v>
       </c>
-      <c r="AB45" s="110"/>
-      <c r="AC45" s="110"/>
-      <c r="AD45" s="110"/>
-      <c r="AE45" s="110"/>
-      <c r="AF45" s="110"/>
-      <c r="AG45" s="110"/>
-      <c r="AH45" s="110"/>
-      <c r="AI45" s="110"/>
-      <c r="AJ45" s="110"/>
-      <c r="AK45" s="110"/>
-      <c r="AL45" s="110"/>
-      <c r="AM45" s="110"/>
-      <c r="AN45" s="110"/>
-      <c r="AO45" s="110"/>
-      <c r="AP45" s="110"/>
-      <c r="AQ45" s="111"/>
-      <c r="AR45" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS45" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT45" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU45" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV45" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW45" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX45" s="74" t="s">
+      <c r="AX45" s="193" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="112" t="s">
+      <c r="B46" s="123" t="s">
         <v>162</v>
       </c>
-      <c r="C46" s="113"/>
-      <c r="D46" s="114" t="s">
+      <c r="C46" s="91"/>
+      <c r="D46" s="174" t="s">
         <v>135</v>
       </c>
-      <c r="E46" s="113"/>
-      <c r="F46" s="115" t="s">
+      <c r="E46" s="175"/>
+      <c r="F46" s="176" t="s">
+        <v>195</v>
+      </c>
+      <c r="G46" s="177"/>
+      <c r="H46" s="178" t="s">
+        <v>196</v>
+      </c>
+      <c r="I46" s="179"/>
+      <c r="J46" s="180" t="s">
+        <v>198</v>
+      </c>
+      <c r="K46" s="180"/>
+      <c r="L46" s="180"/>
+      <c r="M46" s="175">
+        <v>2</v>
+      </c>
+      <c r="N46" s="175"/>
+      <c r="O46" s="175"/>
+      <c r="P46" s="175">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="175"/>
+      <c r="R46" s="175"/>
+      <c r="S46" s="181">
+        <v>3</v>
+      </c>
+      <c r="T46" s="182"/>
+      <c r="U46" s="183" t="s">
+        <v>202</v>
+      </c>
+      <c r="V46" s="184"/>
+      <c r="W46" s="184"/>
+      <c r="X46" s="184"/>
+      <c r="Y46" s="184"/>
+      <c r="Z46" s="185"/>
+      <c r="AA46" s="186" t="s">
         <v>197</v>
       </c>
-      <c r="G46" s="116"/>
-      <c r="H46" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I46" s="171"/>
-      <c r="J46" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K46" s="172"/>
-      <c r="L46" s="172"/>
-      <c r="M46" s="113">
-        <v>2</v>
-      </c>
-      <c r="N46" s="113"/>
-      <c r="O46" s="113"/>
-      <c r="P46" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="113"/>
-      <c r="R46" s="113"/>
-      <c r="S46" s="173">
-        <v>3</v>
-      </c>
-      <c r="T46" s="174"/>
-      <c r="U46" s="167" t="s">
-        <v>205</v>
-      </c>
-      <c r="V46" s="168"/>
-      <c r="W46" s="168"/>
-      <c r="X46" s="168"/>
-      <c r="Y46" s="168"/>
-      <c r="Z46" s="169"/>
-      <c r="AA46" s="109" t="s">
+      <c r="AB46" s="187"/>
+      <c r="AC46" s="187"/>
+      <c r="AD46" s="187"/>
+      <c r="AE46" s="187"/>
+      <c r="AF46" s="187"/>
+      <c r="AG46" s="187"/>
+      <c r="AH46" s="187"/>
+      <c r="AI46" s="187"/>
+      <c r="AJ46" s="187"/>
+      <c r="AK46" s="187"/>
+      <c r="AL46" s="187"/>
+      <c r="AM46" s="187"/>
+      <c r="AN46" s="187"/>
+      <c r="AO46" s="187"/>
+      <c r="AP46" s="187"/>
+      <c r="AQ46" s="188"/>
+      <c r="AR46" s="189" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS46" s="189" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT46" s="190" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU46" s="190" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV46" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW46" s="192" t="s">
         <v>199</v>
       </c>
-      <c r="AB46" s="110"/>
-      <c r="AC46" s="110"/>
-      <c r="AD46" s="110"/>
-      <c r="AE46" s="110"/>
-      <c r="AF46" s="110"/>
-      <c r="AG46" s="110"/>
-      <c r="AH46" s="110"/>
-      <c r="AI46" s="110"/>
-      <c r="AJ46" s="110"/>
-      <c r="AK46" s="110"/>
-      <c r="AL46" s="110"/>
-      <c r="AM46" s="110"/>
-      <c r="AN46" s="110"/>
-      <c r="AO46" s="110"/>
-      <c r="AP46" s="110"/>
-      <c r="AQ46" s="111"/>
-      <c r="AR46" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS46" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT46" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU46" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV46" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW46" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX46" s="74" t="s">
+      <c r="AX46" s="193" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="112" t="s">
+      <c r="B47" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="C47" s="113"/>
-      <c r="D47" s="114" t="s">
+      <c r="C47" s="91"/>
+      <c r="D47" s="174" t="s">
         <v>135</v>
       </c>
-      <c r="E47" s="113"/>
-      <c r="F47" s="115" t="s">
+      <c r="E47" s="175"/>
+      <c r="F47" s="176" t="s">
+        <v>195</v>
+      </c>
+      <c r="G47" s="177"/>
+      <c r="H47" s="178" t="s">
+        <v>196</v>
+      </c>
+      <c r="I47" s="179"/>
+      <c r="J47" s="180" t="s">
+        <v>198</v>
+      </c>
+      <c r="K47" s="180"/>
+      <c r="L47" s="180"/>
+      <c r="M47" s="175">
+        <v>2</v>
+      </c>
+      <c r="N47" s="175"/>
+      <c r="O47" s="175"/>
+      <c r="P47" s="175">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="175"/>
+      <c r="R47" s="175"/>
+      <c r="S47" s="181">
+        <v>3</v>
+      </c>
+      <c r="T47" s="182"/>
+      <c r="U47" s="183" t="s">
+        <v>203</v>
+      </c>
+      <c r="V47" s="184"/>
+      <c r="W47" s="184"/>
+      <c r="X47" s="184"/>
+      <c r="Y47" s="184"/>
+      <c r="Z47" s="185"/>
+      <c r="AA47" s="186" t="s">
         <v>197</v>
       </c>
-      <c r="G47" s="116"/>
-      <c r="H47" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I47" s="171"/>
-      <c r="J47" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K47" s="172"/>
-      <c r="L47" s="172"/>
-      <c r="M47" s="113">
-        <v>2</v>
-      </c>
-      <c r="N47" s="113"/>
-      <c r="O47" s="113"/>
-      <c r="P47" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="113"/>
-      <c r="R47" s="113"/>
-      <c r="S47" s="173">
-        <v>3</v>
-      </c>
-      <c r="T47" s="174"/>
-      <c r="U47" s="167" t="s">
-        <v>206</v>
-      </c>
-      <c r="V47" s="168"/>
-      <c r="W47" s="168"/>
-      <c r="X47" s="168"/>
-      <c r="Y47" s="168"/>
-      <c r="Z47" s="169"/>
-      <c r="AA47" s="109" t="s">
+      <c r="AB47" s="187"/>
+      <c r="AC47" s="187"/>
+      <c r="AD47" s="187"/>
+      <c r="AE47" s="187"/>
+      <c r="AF47" s="187"/>
+      <c r="AG47" s="187"/>
+      <c r="AH47" s="187"/>
+      <c r="AI47" s="187"/>
+      <c r="AJ47" s="187"/>
+      <c r="AK47" s="187"/>
+      <c r="AL47" s="187"/>
+      <c r="AM47" s="187"/>
+      <c r="AN47" s="187"/>
+      <c r="AO47" s="187"/>
+      <c r="AP47" s="187"/>
+      <c r="AQ47" s="188"/>
+      <c r="AR47" s="189" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS47" s="189" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT47" s="190" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU47" s="190" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV47" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW47" s="192" t="s">
         <v>199</v>
       </c>
-      <c r="AB47" s="110"/>
-      <c r="AC47" s="110"/>
-      <c r="AD47" s="110"/>
-      <c r="AE47" s="110"/>
-      <c r="AF47" s="110"/>
-      <c r="AG47" s="110"/>
-      <c r="AH47" s="110"/>
-      <c r="AI47" s="110"/>
-      <c r="AJ47" s="110"/>
-      <c r="AK47" s="110"/>
-      <c r="AL47" s="110"/>
-      <c r="AM47" s="110"/>
-      <c r="AN47" s="110"/>
-      <c r="AO47" s="110"/>
-      <c r="AP47" s="110"/>
-      <c r="AQ47" s="111"/>
-      <c r="AR47" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS47" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT47" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU47" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV47" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW47" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX47" s="74" t="s">
+      <c r="AX47" s="193" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="112" t="s">
+      <c r="B48" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="113"/>
-      <c r="D48" s="114" t="s">
+      <c r="C48" s="91"/>
+      <c r="D48" s="174" t="s">
         <v>135</v>
       </c>
-      <c r="E48" s="113"/>
-      <c r="F48" s="115" t="s">
+      <c r="E48" s="175"/>
+      <c r="F48" s="176" t="s">
+        <v>195</v>
+      </c>
+      <c r="G48" s="177"/>
+      <c r="H48" s="178" t="s">
+        <v>196</v>
+      </c>
+      <c r="I48" s="179"/>
+      <c r="J48" s="180" t="s">
+        <v>198</v>
+      </c>
+      <c r="K48" s="180"/>
+      <c r="L48" s="180"/>
+      <c r="M48" s="175">
+        <v>2</v>
+      </c>
+      <c r="N48" s="175"/>
+      <c r="O48" s="175"/>
+      <c r="P48" s="175">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="175"/>
+      <c r="R48" s="175"/>
+      <c r="S48" s="181">
+        <v>3</v>
+      </c>
+      <c r="T48" s="182"/>
+      <c r="U48" s="183" t="s">
+        <v>204</v>
+      </c>
+      <c r="V48" s="184"/>
+      <c r="W48" s="184"/>
+      <c r="X48" s="184"/>
+      <c r="Y48" s="184"/>
+      <c r="Z48" s="185"/>
+      <c r="AA48" s="186" t="s">
         <v>197</v>
       </c>
-      <c r="G48" s="116"/>
-      <c r="H48" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I48" s="171"/>
-      <c r="J48" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K48" s="172"/>
-      <c r="L48" s="172"/>
-      <c r="M48" s="113">
-        <v>2</v>
-      </c>
-      <c r="N48" s="113"/>
-      <c r="O48" s="113"/>
-      <c r="P48" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="113"/>
-      <c r="R48" s="113"/>
-      <c r="S48" s="173">
-        <v>3</v>
-      </c>
-      <c r="T48" s="174"/>
-      <c r="U48" s="167" t="s">
-        <v>207</v>
-      </c>
-      <c r="V48" s="168"/>
-      <c r="W48" s="168"/>
-      <c r="X48" s="168"/>
-      <c r="Y48" s="168"/>
-      <c r="Z48" s="169"/>
-      <c r="AA48" s="109" t="s">
+      <c r="AB48" s="187"/>
+      <c r="AC48" s="187"/>
+      <c r="AD48" s="187"/>
+      <c r="AE48" s="187"/>
+      <c r="AF48" s="187"/>
+      <c r="AG48" s="187"/>
+      <c r="AH48" s="187"/>
+      <c r="AI48" s="187"/>
+      <c r="AJ48" s="187"/>
+      <c r="AK48" s="187"/>
+      <c r="AL48" s="187"/>
+      <c r="AM48" s="187"/>
+      <c r="AN48" s="187"/>
+      <c r="AO48" s="187"/>
+      <c r="AP48" s="187"/>
+      <c r="AQ48" s="188"/>
+      <c r="AR48" s="189" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS48" s="189" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT48" s="190" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU48" s="190" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV48" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW48" s="192" t="s">
         <v>199</v>
       </c>
-      <c r="AB48" s="110"/>
-      <c r="AC48" s="110"/>
-      <c r="AD48" s="110"/>
-      <c r="AE48" s="110"/>
-      <c r="AF48" s="110"/>
-      <c r="AG48" s="110"/>
-      <c r="AH48" s="110"/>
-      <c r="AI48" s="110"/>
-      <c r="AJ48" s="110"/>
-      <c r="AK48" s="110"/>
-      <c r="AL48" s="110"/>
-      <c r="AM48" s="110"/>
-      <c r="AN48" s="110"/>
-      <c r="AO48" s="110"/>
-      <c r="AP48" s="110"/>
-      <c r="AQ48" s="111"/>
-      <c r="AR48" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS48" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT48" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU48" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV48" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW48" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX48" s="74" t="s">
+      <c r="AX48" s="193" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="49" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="112" t="s">
+      <c r="B49" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="113"/>
-      <c r="D49" s="114" t="s">
+      <c r="C49" s="91"/>
+      <c r="D49" s="174" t="s">
         <v>135</v>
       </c>
-      <c r="E49" s="113"/>
-      <c r="F49" s="115" t="s">
+      <c r="E49" s="175"/>
+      <c r="F49" s="176" t="s">
+        <v>195</v>
+      </c>
+      <c r="G49" s="177"/>
+      <c r="H49" s="178" t="s">
+        <v>196</v>
+      </c>
+      <c r="I49" s="179"/>
+      <c r="J49" s="180" t="s">
+        <v>198</v>
+      </c>
+      <c r="K49" s="180"/>
+      <c r="L49" s="180"/>
+      <c r="M49" s="175">
+        <v>2</v>
+      </c>
+      <c r="N49" s="175"/>
+      <c r="O49" s="175"/>
+      <c r="P49" s="175">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="175"/>
+      <c r="R49" s="175"/>
+      <c r="S49" s="181">
+        <v>3</v>
+      </c>
+      <c r="T49" s="182"/>
+      <c r="U49" s="183" t="s">
+        <v>205</v>
+      </c>
+      <c r="V49" s="184"/>
+      <c r="W49" s="184"/>
+      <c r="X49" s="184"/>
+      <c r="Y49" s="184"/>
+      <c r="Z49" s="185"/>
+      <c r="AA49" s="186" t="s">
         <v>197</v>
       </c>
-      <c r="G49" s="116"/>
-      <c r="H49" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I49" s="171"/>
-      <c r="J49" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K49" s="172"/>
-      <c r="L49" s="172"/>
-      <c r="M49" s="113">
-        <v>2</v>
-      </c>
-      <c r="N49" s="113"/>
-      <c r="O49" s="113"/>
-      <c r="P49" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="113"/>
-      <c r="R49" s="113"/>
-      <c r="S49" s="173">
-        <v>3</v>
-      </c>
-      <c r="T49" s="174"/>
-      <c r="U49" s="167" t="s">
-        <v>208</v>
-      </c>
-      <c r="V49" s="168"/>
-      <c r="W49" s="168"/>
-      <c r="X49" s="168"/>
-      <c r="Y49" s="168"/>
-      <c r="Z49" s="169"/>
-      <c r="AA49" s="109" t="s">
+      <c r="AB49" s="187"/>
+      <c r="AC49" s="187"/>
+      <c r="AD49" s="187"/>
+      <c r="AE49" s="187"/>
+      <c r="AF49" s="187"/>
+      <c r="AG49" s="187"/>
+      <c r="AH49" s="187"/>
+      <c r="AI49" s="187"/>
+      <c r="AJ49" s="187"/>
+      <c r="AK49" s="187"/>
+      <c r="AL49" s="187"/>
+      <c r="AM49" s="187"/>
+      <c r="AN49" s="187"/>
+      <c r="AO49" s="187"/>
+      <c r="AP49" s="187"/>
+      <c r="AQ49" s="188"/>
+      <c r="AR49" s="189" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS49" s="189" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT49" s="190" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU49" s="190" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV49" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW49" s="192" t="s">
         <v>199</v>
       </c>
-      <c r="AB49" s="110"/>
-      <c r="AC49" s="110"/>
-      <c r="AD49" s="110"/>
-      <c r="AE49" s="110"/>
-      <c r="AF49" s="110"/>
-      <c r="AG49" s="110"/>
-      <c r="AH49" s="110"/>
-      <c r="AI49" s="110"/>
-      <c r="AJ49" s="110"/>
-      <c r="AK49" s="110"/>
-      <c r="AL49" s="110"/>
-      <c r="AM49" s="110"/>
-      <c r="AN49" s="110"/>
-      <c r="AO49" s="110"/>
-      <c r="AP49" s="110"/>
-      <c r="AQ49" s="111"/>
-      <c r="AR49" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS49" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT49" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU49" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV49" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW49" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX49" s="74" t="s">
+      <c r="AX49" s="193" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="50" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="112" t="s">
+      <c r="B50" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="C50" s="113"/>
-      <c r="D50" s="114" t="s">
+      <c r="C50" s="91"/>
+      <c r="D50" s="174" t="s">
         <v>135</v>
       </c>
-      <c r="E50" s="113"/>
-      <c r="F50" s="115" t="s">
+      <c r="E50" s="175"/>
+      <c r="F50" s="176" t="s">
+        <v>195</v>
+      </c>
+      <c r="G50" s="177"/>
+      <c r="H50" s="178" t="s">
+        <v>196</v>
+      </c>
+      <c r="I50" s="179"/>
+      <c r="J50" s="180" t="s">
+        <v>198</v>
+      </c>
+      <c r="K50" s="180"/>
+      <c r="L50" s="180"/>
+      <c r="M50" s="175">
+        <v>2</v>
+      </c>
+      <c r="N50" s="175"/>
+      <c r="O50" s="175"/>
+      <c r="P50" s="175">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="175"/>
+      <c r="R50" s="175"/>
+      <c r="S50" s="181">
+        <v>3</v>
+      </c>
+      <c r="T50" s="182"/>
+      <c r="U50" s="183" t="s">
+        <v>206</v>
+      </c>
+      <c r="V50" s="184"/>
+      <c r="W50" s="184"/>
+      <c r="X50" s="184"/>
+      <c r="Y50" s="184"/>
+      <c r="Z50" s="185"/>
+      <c r="AA50" s="186" t="s">
         <v>197</v>
       </c>
-      <c r="G50" s="116"/>
-      <c r="H50" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I50" s="171"/>
-      <c r="J50" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K50" s="172"/>
-      <c r="L50" s="172"/>
-      <c r="M50" s="113">
-        <v>2</v>
-      </c>
-      <c r="N50" s="113"/>
-      <c r="O50" s="113"/>
-      <c r="P50" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="113"/>
-      <c r="R50" s="113"/>
-      <c r="S50" s="173">
-        <v>3</v>
-      </c>
-      <c r="T50" s="174"/>
-      <c r="U50" s="167" t="s">
-        <v>209</v>
-      </c>
-      <c r="V50" s="168"/>
-      <c r="W50" s="168"/>
-      <c r="X50" s="168"/>
-      <c r="Y50" s="168"/>
-      <c r="Z50" s="169"/>
-      <c r="AA50" s="109" t="s">
+      <c r="AB50" s="187"/>
+      <c r="AC50" s="187"/>
+      <c r="AD50" s="187"/>
+      <c r="AE50" s="187"/>
+      <c r="AF50" s="187"/>
+      <c r="AG50" s="187"/>
+      <c r="AH50" s="187"/>
+      <c r="AI50" s="187"/>
+      <c r="AJ50" s="187"/>
+      <c r="AK50" s="187"/>
+      <c r="AL50" s="187"/>
+      <c r="AM50" s="187"/>
+      <c r="AN50" s="187"/>
+      <c r="AO50" s="187"/>
+      <c r="AP50" s="187"/>
+      <c r="AQ50" s="188"/>
+      <c r="AR50" s="189" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS50" s="189" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT50" s="190" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU50" s="190" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV50" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW50" s="192" t="s">
         <v>199</v>
       </c>
-      <c r="AB50" s="110"/>
-      <c r="AC50" s="110"/>
-      <c r="AD50" s="110"/>
-      <c r="AE50" s="110"/>
-      <c r="AF50" s="110"/>
-      <c r="AG50" s="110"/>
-      <c r="AH50" s="110"/>
-      <c r="AI50" s="110"/>
-      <c r="AJ50" s="110"/>
-      <c r="AK50" s="110"/>
-      <c r="AL50" s="110"/>
-      <c r="AM50" s="110"/>
-      <c r="AN50" s="110"/>
-      <c r="AO50" s="110"/>
-      <c r="AP50" s="110"/>
-      <c r="AQ50" s="111"/>
-      <c r="AR50" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS50" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT50" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU50" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV50" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW50" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX50" s="74" t="s">
+      <c r="AX50" s="193" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="51" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="112" t="s">
+      <c r="B51" s="123" t="s">
         <v>167</v>
       </c>
-      <c r="C51" s="113"/>
-      <c r="D51" s="114" t="s">
+      <c r="C51" s="91"/>
+      <c r="D51" s="174" t="s">
         <v>135</v>
       </c>
-      <c r="E51" s="113"/>
-      <c r="F51" s="115" t="s">
+      <c r="E51" s="175"/>
+      <c r="F51" s="176" t="s">
+        <v>195</v>
+      </c>
+      <c r="G51" s="177"/>
+      <c r="H51" s="178" t="s">
+        <v>196</v>
+      </c>
+      <c r="I51" s="179"/>
+      <c r="J51" s="180" t="s">
+        <v>198</v>
+      </c>
+      <c r="K51" s="180"/>
+      <c r="L51" s="180"/>
+      <c r="M51" s="175">
+        <v>2</v>
+      </c>
+      <c r="N51" s="175"/>
+      <c r="O51" s="175"/>
+      <c r="P51" s="175">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="175"/>
+      <c r="R51" s="175"/>
+      <c r="S51" s="181">
+        <v>3</v>
+      </c>
+      <c r="T51" s="182"/>
+      <c r="U51" s="183" t="s">
+        <v>207</v>
+      </c>
+      <c r="V51" s="184"/>
+      <c r="W51" s="184"/>
+      <c r="X51" s="184"/>
+      <c r="Y51" s="184"/>
+      <c r="Z51" s="185"/>
+      <c r="AA51" s="186" t="s">
         <v>197</v>
       </c>
-      <c r="G51" s="116"/>
-      <c r="H51" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I51" s="171"/>
-      <c r="J51" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K51" s="172"/>
-      <c r="L51" s="172"/>
-      <c r="M51" s="113">
-        <v>2</v>
-      </c>
-      <c r="N51" s="113"/>
-      <c r="O51" s="113"/>
-      <c r="P51" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="113"/>
-      <c r="R51" s="113"/>
-      <c r="S51" s="173">
-        <v>3</v>
-      </c>
-      <c r="T51" s="174"/>
-      <c r="U51" s="167" t="s">
-        <v>210</v>
-      </c>
-      <c r="V51" s="168"/>
-      <c r="W51" s="168"/>
-      <c r="X51" s="168"/>
-      <c r="Y51" s="168"/>
-      <c r="Z51" s="169"/>
-      <c r="AA51" s="109" t="s">
+      <c r="AB51" s="187"/>
+      <c r="AC51" s="187"/>
+      <c r="AD51" s="187"/>
+      <c r="AE51" s="187"/>
+      <c r="AF51" s="187"/>
+      <c r="AG51" s="187"/>
+      <c r="AH51" s="187"/>
+      <c r="AI51" s="187"/>
+      <c r="AJ51" s="187"/>
+      <c r="AK51" s="187"/>
+      <c r="AL51" s="187"/>
+      <c r="AM51" s="187"/>
+      <c r="AN51" s="187"/>
+      <c r="AO51" s="187"/>
+      <c r="AP51" s="187"/>
+      <c r="AQ51" s="188"/>
+      <c r="AR51" s="189" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS51" s="189" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT51" s="190" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU51" s="190" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV51" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW51" s="192" t="s">
         <v>199</v>
       </c>
-      <c r="AB51" s="110"/>
-      <c r="AC51" s="110"/>
-      <c r="AD51" s="110"/>
-      <c r="AE51" s="110"/>
-      <c r="AF51" s="110"/>
-      <c r="AG51" s="110"/>
-      <c r="AH51" s="110"/>
-      <c r="AI51" s="110"/>
-      <c r="AJ51" s="110"/>
-      <c r="AK51" s="110"/>
-      <c r="AL51" s="110"/>
-      <c r="AM51" s="110"/>
-      <c r="AN51" s="110"/>
-      <c r="AO51" s="110"/>
-      <c r="AP51" s="110"/>
-      <c r="AQ51" s="111"/>
-      <c r="AR51" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS51" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT51" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU51" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV51" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW51" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX51" s="74" t="s">
+      <c r="AX51" s="193" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="52" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="112" t="s">
+      <c r="B52" s="123" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="113"/>
-      <c r="D52" s="114" t="s">
+      <c r="C52" s="91"/>
+      <c r="D52" s="174" t="s">
         <v>135</v>
       </c>
-      <c r="E52" s="113"/>
-      <c r="F52" s="115" t="s">
+      <c r="E52" s="175"/>
+      <c r="F52" s="176" t="s">
+        <v>195</v>
+      </c>
+      <c r="G52" s="177"/>
+      <c r="H52" s="178" t="s">
+        <v>196</v>
+      </c>
+      <c r="I52" s="179"/>
+      <c r="J52" s="180" t="s">
+        <v>198</v>
+      </c>
+      <c r="K52" s="180"/>
+      <c r="L52" s="180"/>
+      <c r="M52" s="175">
+        <v>2</v>
+      </c>
+      <c r="N52" s="175"/>
+      <c r="O52" s="175"/>
+      <c r="P52" s="175">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="175"/>
+      <c r="R52" s="175"/>
+      <c r="S52" s="181">
+        <v>3</v>
+      </c>
+      <c r="T52" s="182"/>
+      <c r="U52" s="183" t="s">
+        <v>208</v>
+      </c>
+      <c r="V52" s="184"/>
+      <c r="W52" s="184"/>
+      <c r="X52" s="184"/>
+      <c r="Y52" s="184"/>
+      <c r="Z52" s="185"/>
+      <c r="AA52" s="186" t="s">
         <v>197</v>
       </c>
-      <c r="G52" s="116"/>
-      <c r="H52" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I52" s="171"/>
-      <c r="J52" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K52" s="172"/>
-      <c r="L52" s="172"/>
-      <c r="M52" s="113">
-        <v>2</v>
-      </c>
-      <c r="N52" s="113"/>
-      <c r="O52" s="113"/>
-      <c r="P52" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="113"/>
-      <c r="R52" s="113"/>
-      <c r="S52" s="173">
-        <v>3</v>
-      </c>
-      <c r="T52" s="174"/>
-      <c r="U52" s="167" t="s">
-        <v>211</v>
-      </c>
-      <c r="V52" s="168"/>
-      <c r="W52" s="168"/>
-      <c r="X52" s="168"/>
-      <c r="Y52" s="168"/>
-      <c r="Z52" s="169"/>
-      <c r="AA52" s="109" t="s">
+      <c r="AB52" s="187"/>
+      <c r="AC52" s="187"/>
+      <c r="AD52" s="187"/>
+      <c r="AE52" s="187"/>
+      <c r="AF52" s="187"/>
+      <c r="AG52" s="187"/>
+      <c r="AH52" s="187"/>
+      <c r="AI52" s="187"/>
+      <c r="AJ52" s="187"/>
+      <c r="AK52" s="187"/>
+      <c r="AL52" s="187"/>
+      <c r="AM52" s="187"/>
+      <c r="AN52" s="187"/>
+      <c r="AO52" s="187"/>
+      <c r="AP52" s="187"/>
+      <c r="AQ52" s="188"/>
+      <c r="AR52" s="189" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS52" s="189" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT52" s="190" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU52" s="190" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV52" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW52" s="192" t="s">
         <v>199</v>
       </c>
-      <c r="AB52" s="110"/>
-      <c r="AC52" s="110"/>
-      <c r="AD52" s="110"/>
-      <c r="AE52" s="110"/>
-      <c r="AF52" s="110"/>
-      <c r="AG52" s="110"/>
-      <c r="AH52" s="110"/>
-      <c r="AI52" s="110"/>
-      <c r="AJ52" s="110"/>
-      <c r="AK52" s="110"/>
-      <c r="AL52" s="110"/>
-      <c r="AM52" s="110"/>
-      <c r="AN52" s="110"/>
-      <c r="AO52" s="110"/>
-      <c r="AP52" s="110"/>
-      <c r="AQ52" s="111"/>
-      <c r="AR52" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS52" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT52" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU52" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV52" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW52" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX52" s="74" t="s">
+      <c r="AX52" s="193" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="53" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="112" t="s">
+      <c r="B53" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="113"/>
-      <c r="D53" s="114" t="s">
+      <c r="C53" s="91"/>
+      <c r="D53" s="195" t="s">
         <v>135</v>
       </c>
-      <c r="E53" s="113"/>
-      <c r="F53" s="115" t="s">
+      <c r="E53" s="196"/>
+      <c r="F53" s="197" t="s">
+        <v>195</v>
+      </c>
+      <c r="G53" s="198"/>
+      <c r="H53" s="199" t="s">
+        <v>196</v>
+      </c>
+      <c r="I53" s="200"/>
+      <c r="J53" s="201" t="s">
+        <v>198</v>
+      </c>
+      <c r="K53" s="201"/>
+      <c r="L53" s="201"/>
+      <c r="M53" s="196">
+        <v>2</v>
+      </c>
+      <c r="N53" s="196"/>
+      <c r="O53" s="196"/>
+      <c r="P53" s="196">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="196"/>
+      <c r="R53" s="196"/>
+      <c r="S53" s="202">
+        <v>3</v>
+      </c>
+      <c r="T53" s="203"/>
+      <c r="U53" s="204" t="s">
+        <v>209</v>
+      </c>
+      <c r="V53" s="205"/>
+      <c r="W53" s="205"/>
+      <c r="X53" s="205"/>
+      <c r="Y53" s="205"/>
+      <c r="Z53" s="206"/>
+      <c r="AA53" s="207" t="s">
         <v>197</v>
       </c>
-      <c r="G53" s="116"/>
-      <c r="H53" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I53" s="171"/>
-      <c r="J53" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K53" s="172"/>
-      <c r="L53" s="172"/>
-      <c r="M53" s="113">
-        <v>2</v>
-      </c>
-      <c r="N53" s="113"/>
-      <c r="O53" s="113"/>
-      <c r="P53" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="113"/>
-      <c r="R53" s="113"/>
-      <c r="S53" s="173">
-        <v>3</v>
-      </c>
-      <c r="T53" s="174"/>
-      <c r="U53" s="167" t="s">
-        <v>212</v>
-      </c>
-      <c r="V53" s="168"/>
-      <c r="W53" s="168"/>
-      <c r="X53" s="168"/>
-      <c r="Y53" s="168"/>
-      <c r="Z53" s="169"/>
-      <c r="AA53" s="109" t="s">
+      <c r="AB53" s="208"/>
+      <c r="AC53" s="208"/>
+      <c r="AD53" s="208"/>
+      <c r="AE53" s="208"/>
+      <c r="AF53" s="208"/>
+      <c r="AG53" s="208"/>
+      <c r="AH53" s="208"/>
+      <c r="AI53" s="208"/>
+      <c r="AJ53" s="208"/>
+      <c r="AK53" s="208"/>
+      <c r="AL53" s="208"/>
+      <c r="AM53" s="208"/>
+      <c r="AN53" s="208"/>
+      <c r="AO53" s="208"/>
+      <c r="AP53" s="208"/>
+      <c r="AQ53" s="209"/>
+      <c r="AR53" s="210" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS53" s="210" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT53" s="211" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU53" s="211" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV53" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW53" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="AB53" s="110"/>
-      <c r="AC53" s="110"/>
-      <c r="AD53" s="110"/>
-      <c r="AE53" s="110"/>
-      <c r="AF53" s="110"/>
-      <c r="AG53" s="110"/>
-      <c r="AH53" s="110"/>
-      <c r="AI53" s="110"/>
-      <c r="AJ53" s="110"/>
-      <c r="AK53" s="110"/>
-      <c r="AL53" s="110"/>
-      <c r="AM53" s="110"/>
-      <c r="AN53" s="110"/>
-      <c r="AO53" s="110"/>
-      <c r="AP53" s="110"/>
-      <c r="AQ53" s="111"/>
-      <c r="AR53" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS53" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT53" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU53" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV53" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW53" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX53" s="74" t="s">
+      <c r="AX53" s="73" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="54" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="112" t="s">
+      <c r="B54" s="123" t="s">
         <v>170</v>
       </c>
-      <c r="C54" s="113"/>
-      <c r="D54" s="114" t="s">
+      <c r="C54" s="91"/>
+      <c r="D54" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="E54" s="113"/>
-      <c r="F54" s="115" t="s">
+      <c r="E54" s="91"/>
+      <c r="F54" s="118" t="s">
+        <v>195</v>
+      </c>
+      <c r="G54" s="119"/>
+      <c r="H54" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="I54" s="121"/>
+      <c r="J54" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="K54" s="122"/>
+      <c r="L54" s="122"/>
+      <c r="M54" s="91">
+        <v>2</v>
+      </c>
+      <c r="N54" s="91"/>
+      <c r="O54" s="91"/>
+      <c r="P54" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="91"/>
+      <c r="R54" s="91"/>
+      <c r="S54" s="80">
+        <v>3</v>
+      </c>
+      <c r="T54" s="81"/>
+      <c r="U54" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="V54" s="83"/>
+      <c r="W54" s="83"/>
+      <c r="X54" s="83"/>
+      <c r="Y54" s="83"/>
+      <c r="Z54" s="84"/>
+      <c r="AA54" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="G54" s="116"/>
-      <c r="H54" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I54" s="171"/>
-      <c r="J54" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K54" s="172"/>
-      <c r="L54" s="172"/>
-      <c r="M54" s="113">
-        <v>2</v>
-      </c>
-      <c r="N54" s="113"/>
-      <c r="O54" s="113"/>
-      <c r="P54" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="113"/>
-      <c r="R54" s="113"/>
-      <c r="S54" s="173">
-        <v>3</v>
-      </c>
-      <c r="T54" s="174"/>
-      <c r="U54" s="167" t="s">
-        <v>213</v>
-      </c>
-      <c r="V54" s="168"/>
-      <c r="W54" s="168"/>
-      <c r="X54" s="168"/>
-      <c r="Y54" s="168"/>
-      <c r="Z54" s="169"/>
-      <c r="AA54" s="109" t="s">
+      <c r="AB54" s="86"/>
+      <c r="AC54" s="86"/>
+      <c r="AD54" s="86"/>
+      <c r="AE54" s="86"/>
+      <c r="AF54" s="86"/>
+      <c r="AG54" s="86"/>
+      <c r="AH54" s="86"/>
+      <c r="AI54" s="86"/>
+      <c r="AJ54" s="86"/>
+      <c r="AK54" s="86"/>
+      <c r="AL54" s="86"/>
+      <c r="AM54" s="86"/>
+      <c r="AN54" s="86"/>
+      <c r="AO54" s="86"/>
+      <c r="AP54" s="86"/>
+      <c r="AQ54" s="87"/>
+      <c r="AR54" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS54" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT54" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU54" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV54" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW54" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="AB54" s="110"/>
-      <c r="AC54" s="110"/>
-      <c r="AD54" s="110"/>
-      <c r="AE54" s="110"/>
-      <c r="AF54" s="110"/>
-      <c r="AG54" s="110"/>
-      <c r="AH54" s="110"/>
-      <c r="AI54" s="110"/>
-      <c r="AJ54" s="110"/>
-      <c r="AK54" s="110"/>
-      <c r="AL54" s="110"/>
-      <c r="AM54" s="110"/>
-      <c r="AN54" s="110"/>
-      <c r="AO54" s="110"/>
-      <c r="AP54" s="110"/>
-      <c r="AQ54" s="111"/>
-      <c r="AR54" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS54" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT54" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU54" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV54" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW54" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX54" s="74" t="s">
+      <c r="AX54" s="73" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="55" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="112" t="s">
+      <c r="B55" s="123" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="113"/>
-      <c r="D55" s="114" t="s">
+      <c r="C55" s="91"/>
+      <c r="D55" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="E55" s="113"/>
-      <c r="F55" s="115" t="s">
+      <c r="E55" s="91"/>
+      <c r="F55" s="118" t="s">
+        <v>195</v>
+      </c>
+      <c r="G55" s="119"/>
+      <c r="H55" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="I55" s="121"/>
+      <c r="J55" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="K55" s="122"/>
+      <c r="L55" s="122"/>
+      <c r="M55" s="91">
+        <v>2</v>
+      </c>
+      <c r="N55" s="91"/>
+      <c r="O55" s="91"/>
+      <c r="P55" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="91"/>
+      <c r="R55" s="91"/>
+      <c r="S55" s="80">
+        <v>3</v>
+      </c>
+      <c r="T55" s="81"/>
+      <c r="U55" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="V55" s="83"/>
+      <c r="W55" s="83"/>
+      <c r="X55" s="83"/>
+      <c r="Y55" s="83"/>
+      <c r="Z55" s="84"/>
+      <c r="AA55" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="G55" s="116"/>
-      <c r="H55" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I55" s="171"/>
-      <c r="J55" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K55" s="172"/>
-      <c r="L55" s="172"/>
-      <c r="M55" s="113">
-        <v>2</v>
-      </c>
-      <c r="N55" s="113"/>
-      <c r="O55" s="113"/>
-      <c r="P55" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="113"/>
-      <c r="R55" s="113"/>
-      <c r="S55" s="173">
-        <v>3</v>
-      </c>
-      <c r="T55" s="174"/>
-      <c r="U55" s="167" t="s">
-        <v>214</v>
-      </c>
-      <c r="V55" s="168"/>
-      <c r="W55" s="168"/>
-      <c r="X55" s="168"/>
-      <c r="Y55" s="168"/>
-      <c r="Z55" s="169"/>
-      <c r="AA55" s="109" t="s">
+      <c r="AB55" s="86"/>
+      <c r="AC55" s="86"/>
+      <c r="AD55" s="86"/>
+      <c r="AE55" s="86"/>
+      <c r="AF55" s="86"/>
+      <c r="AG55" s="86"/>
+      <c r="AH55" s="86"/>
+      <c r="AI55" s="86"/>
+      <c r="AJ55" s="86"/>
+      <c r="AK55" s="86"/>
+      <c r="AL55" s="86"/>
+      <c r="AM55" s="86"/>
+      <c r="AN55" s="86"/>
+      <c r="AO55" s="86"/>
+      <c r="AP55" s="86"/>
+      <c r="AQ55" s="87"/>
+      <c r="AR55" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS55" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT55" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU55" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV55" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW55" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="AB55" s="110"/>
-      <c r="AC55" s="110"/>
-      <c r="AD55" s="110"/>
-      <c r="AE55" s="110"/>
-      <c r="AF55" s="110"/>
-      <c r="AG55" s="110"/>
-      <c r="AH55" s="110"/>
-      <c r="AI55" s="110"/>
-      <c r="AJ55" s="110"/>
-      <c r="AK55" s="110"/>
-      <c r="AL55" s="110"/>
-      <c r="AM55" s="110"/>
-      <c r="AN55" s="110"/>
-      <c r="AO55" s="110"/>
-      <c r="AP55" s="110"/>
-      <c r="AQ55" s="111"/>
-      <c r="AR55" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS55" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT55" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU55" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV55" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW55" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX55" s="74" t="s">
+      <c r="AX55" s="73" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="56" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="112" t="s">
+      <c r="B56" s="123" t="s">
         <v>172</v>
       </c>
-      <c r="C56" s="113"/>
-      <c r="D56" s="114" t="s">
+      <c r="C56" s="91"/>
+      <c r="D56" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="E56" s="113"/>
-      <c r="F56" s="115" t="s">
+      <c r="E56" s="91"/>
+      <c r="F56" s="118" t="s">
+        <v>195</v>
+      </c>
+      <c r="G56" s="119"/>
+      <c r="H56" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="I56" s="121"/>
+      <c r="J56" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="K56" s="122"/>
+      <c r="L56" s="122"/>
+      <c r="M56" s="91">
+        <v>2</v>
+      </c>
+      <c r="N56" s="91"/>
+      <c r="O56" s="91"/>
+      <c r="P56" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="91"/>
+      <c r="R56" s="91"/>
+      <c r="S56" s="80">
+        <v>3</v>
+      </c>
+      <c r="T56" s="81"/>
+      <c r="U56" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="V56" s="83"/>
+      <c r="W56" s="83"/>
+      <c r="X56" s="83"/>
+      <c r="Y56" s="83"/>
+      <c r="Z56" s="84"/>
+      <c r="AA56" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="G56" s="116"/>
-      <c r="H56" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I56" s="171"/>
-      <c r="J56" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K56" s="172"/>
-      <c r="L56" s="172"/>
-      <c r="M56" s="113">
-        <v>2</v>
-      </c>
-      <c r="N56" s="113"/>
-      <c r="O56" s="113"/>
-      <c r="P56" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="113"/>
-      <c r="R56" s="113"/>
-      <c r="S56" s="173">
-        <v>3</v>
-      </c>
-      <c r="T56" s="174"/>
-      <c r="U56" s="167" t="s">
-        <v>215</v>
-      </c>
-      <c r="V56" s="168"/>
-      <c r="W56" s="168"/>
-      <c r="X56" s="168"/>
-      <c r="Y56" s="168"/>
-      <c r="Z56" s="169"/>
-      <c r="AA56" s="109" t="s">
+      <c r="AB56" s="86"/>
+      <c r="AC56" s="86"/>
+      <c r="AD56" s="86"/>
+      <c r="AE56" s="86"/>
+      <c r="AF56" s="86"/>
+      <c r="AG56" s="86"/>
+      <c r="AH56" s="86"/>
+      <c r="AI56" s="86"/>
+      <c r="AJ56" s="86"/>
+      <c r="AK56" s="86"/>
+      <c r="AL56" s="86"/>
+      <c r="AM56" s="86"/>
+      <c r="AN56" s="86"/>
+      <c r="AO56" s="86"/>
+      <c r="AP56" s="86"/>
+      <c r="AQ56" s="87"/>
+      <c r="AR56" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS56" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT56" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU56" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV56" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW56" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="AB56" s="110"/>
-      <c r="AC56" s="110"/>
-      <c r="AD56" s="110"/>
-      <c r="AE56" s="110"/>
-      <c r="AF56" s="110"/>
-      <c r="AG56" s="110"/>
-      <c r="AH56" s="110"/>
-      <c r="AI56" s="110"/>
-      <c r="AJ56" s="110"/>
-      <c r="AK56" s="110"/>
-      <c r="AL56" s="110"/>
-      <c r="AM56" s="110"/>
-      <c r="AN56" s="110"/>
-      <c r="AO56" s="110"/>
-      <c r="AP56" s="110"/>
-      <c r="AQ56" s="111"/>
-      <c r="AR56" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS56" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT56" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU56" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV56" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW56" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX56" s="74" t="s">
+      <c r="AX56" s="73" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="57" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="112" t="s">
+      <c r="B57" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="C57" s="113"/>
-      <c r="D57" s="114" t="s">
+      <c r="C57" s="91"/>
+      <c r="D57" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="E57" s="113"/>
-      <c r="F57" s="115" t="s">
+      <c r="E57" s="91"/>
+      <c r="F57" s="118" t="s">
+        <v>195</v>
+      </c>
+      <c r="G57" s="119"/>
+      <c r="H57" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="I57" s="121"/>
+      <c r="J57" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="K57" s="122"/>
+      <c r="L57" s="122"/>
+      <c r="M57" s="91">
+        <v>2</v>
+      </c>
+      <c r="N57" s="91"/>
+      <c r="O57" s="91"/>
+      <c r="P57" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="91"/>
+      <c r="R57" s="91"/>
+      <c r="S57" s="80">
+        <v>3</v>
+      </c>
+      <c r="T57" s="81"/>
+      <c r="U57" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="V57" s="83"/>
+      <c r="W57" s="83"/>
+      <c r="X57" s="83"/>
+      <c r="Y57" s="83"/>
+      <c r="Z57" s="84"/>
+      <c r="AA57" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="G57" s="116"/>
-      <c r="H57" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I57" s="171"/>
-      <c r="J57" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K57" s="172"/>
-      <c r="L57" s="172"/>
-      <c r="M57" s="113">
-        <v>2</v>
-      </c>
-      <c r="N57" s="113"/>
-      <c r="O57" s="113"/>
-      <c r="P57" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="113"/>
-      <c r="R57" s="113"/>
-      <c r="S57" s="173">
-        <v>3</v>
-      </c>
-      <c r="T57" s="174"/>
-      <c r="U57" s="167" t="s">
-        <v>216</v>
-      </c>
-      <c r="V57" s="168"/>
-      <c r="W57" s="168"/>
-      <c r="X57" s="168"/>
-      <c r="Y57" s="168"/>
-      <c r="Z57" s="169"/>
-      <c r="AA57" s="109" t="s">
+      <c r="AB57" s="86"/>
+      <c r="AC57" s="86"/>
+      <c r="AD57" s="86"/>
+      <c r="AE57" s="86"/>
+      <c r="AF57" s="86"/>
+      <c r="AG57" s="86"/>
+      <c r="AH57" s="86"/>
+      <c r="AI57" s="86"/>
+      <c r="AJ57" s="86"/>
+      <c r="AK57" s="86"/>
+      <c r="AL57" s="86"/>
+      <c r="AM57" s="86"/>
+      <c r="AN57" s="86"/>
+      <c r="AO57" s="86"/>
+      <c r="AP57" s="86"/>
+      <c r="AQ57" s="87"/>
+      <c r="AR57" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS57" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT57" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU57" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV57" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW57" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="AB57" s="110"/>
-      <c r="AC57" s="110"/>
-      <c r="AD57" s="110"/>
-      <c r="AE57" s="110"/>
-      <c r="AF57" s="110"/>
-      <c r="AG57" s="110"/>
-      <c r="AH57" s="110"/>
-      <c r="AI57" s="110"/>
-      <c r="AJ57" s="110"/>
-      <c r="AK57" s="110"/>
-      <c r="AL57" s="110"/>
-      <c r="AM57" s="110"/>
-      <c r="AN57" s="110"/>
-      <c r="AO57" s="110"/>
-      <c r="AP57" s="110"/>
-      <c r="AQ57" s="111"/>
-      <c r="AR57" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS57" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT57" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU57" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV57" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW57" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX57" s="74" t="s">
+      <c r="AX57" s="73" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="58" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="112" t="s">
+      <c r="B58" s="123" t="s">
         <v>174</v>
       </c>
-      <c r="C58" s="113"/>
-      <c r="D58" s="114" t="s">
+      <c r="C58" s="91"/>
+      <c r="D58" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="E58" s="113"/>
-      <c r="F58" s="115" t="s">
+      <c r="E58" s="91"/>
+      <c r="F58" s="118" t="s">
+        <v>195</v>
+      </c>
+      <c r="G58" s="119"/>
+      <c r="H58" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="I58" s="121"/>
+      <c r="J58" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="K58" s="122"/>
+      <c r="L58" s="122"/>
+      <c r="M58" s="91">
+        <v>2</v>
+      </c>
+      <c r="N58" s="91"/>
+      <c r="O58" s="91"/>
+      <c r="P58" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="91"/>
+      <c r="R58" s="91"/>
+      <c r="S58" s="80">
+        <v>3</v>
+      </c>
+      <c r="T58" s="81"/>
+      <c r="U58" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="V58" s="83"/>
+      <c r="W58" s="83"/>
+      <c r="X58" s="83"/>
+      <c r="Y58" s="83"/>
+      <c r="Z58" s="84"/>
+      <c r="AA58" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="G58" s="116"/>
-      <c r="H58" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I58" s="171"/>
-      <c r="J58" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K58" s="172"/>
-      <c r="L58" s="172"/>
-      <c r="M58" s="113">
-        <v>2</v>
-      </c>
-      <c r="N58" s="113"/>
-      <c r="O58" s="113"/>
-      <c r="P58" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="113"/>
-      <c r="R58" s="113"/>
-      <c r="S58" s="173">
-        <v>3</v>
-      </c>
-      <c r="T58" s="174"/>
-      <c r="U58" s="167" t="s">
-        <v>217</v>
-      </c>
-      <c r="V58" s="168"/>
-      <c r="W58" s="168"/>
-      <c r="X58" s="168"/>
-      <c r="Y58" s="168"/>
-      <c r="Z58" s="169"/>
-      <c r="AA58" s="109" t="s">
+      <c r="AB58" s="86"/>
+      <c r="AC58" s="86"/>
+      <c r="AD58" s="86"/>
+      <c r="AE58" s="86"/>
+      <c r="AF58" s="86"/>
+      <c r="AG58" s="86"/>
+      <c r="AH58" s="86"/>
+      <c r="AI58" s="86"/>
+      <c r="AJ58" s="86"/>
+      <c r="AK58" s="86"/>
+      <c r="AL58" s="86"/>
+      <c r="AM58" s="86"/>
+      <c r="AN58" s="86"/>
+      <c r="AO58" s="86"/>
+      <c r="AP58" s="86"/>
+      <c r="AQ58" s="87"/>
+      <c r="AR58" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS58" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT58" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU58" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV58" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW58" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="AB58" s="110"/>
-      <c r="AC58" s="110"/>
-      <c r="AD58" s="110"/>
-      <c r="AE58" s="110"/>
-      <c r="AF58" s="110"/>
-      <c r="AG58" s="110"/>
-      <c r="AH58" s="110"/>
-      <c r="AI58" s="110"/>
-      <c r="AJ58" s="110"/>
-      <c r="AK58" s="110"/>
-      <c r="AL58" s="110"/>
-      <c r="AM58" s="110"/>
-      <c r="AN58" s="110"/>
-      <c r="AO58" s="110"/>
-      <c r="AP58" s="110"/>
-      <c r="AQ58" s="111"/>
-      <c r="AR58" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS58" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT58" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU58" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV58" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW58" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX58" s="74" t="s">
+      <c r="AX58" s="73" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="59" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="112" t="s">
+      <c r="B59" s="123" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="113"/>
-      <c r="D59" s="114" t="s">
+      <c r="C59" s="91"/>
+      <c r="D59" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="E59" s="113"/>
-      <c r="F59" s="115" t="s">
+      <c r="E59" s="91"/>
+      <c r="F59" s="118" t="s">
+        <v>195</v>
+      </c>
+      <c r="G59" s="119"/>
+      <c r="H59" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="I59" s="121"/>
+      <c r="J59" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="K59" s="122"/>
+      <c r="L59" s="122"/>
+      <c r="M59" s="91">
+        <v>2</v>
+      </c>
+      <c r="N59" s="91"/>
+      <c r="O59" s="91"/>
+      <c r="P59" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="91"/>
+      <c r="R59" s="91"/>
+      <c r="S59" s="80">
+        <v>3</v>
+      </c>
+      <c r="T59" s="81"/>
+      <c r="U59" s="82" t="s">
+        <v>215</v>
+      </c>
+      <c r="V59" s="83"/>
+      <c r="W59" s="83"/>
+      <c r="X59" s="83"/>
+      <c r="Y59" s="83"/>
+      <c r="Z59" s="84"/>
+      <c r="AA59" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="G59" s="116"/>
-      <c r="H59" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I59" s="171"/>
-      <c r="J59" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K59" s="172"/>
-      <c r="L59" s="172"/>
-      <c r="M59" s="113">
-        <v>2</v>
-      </c>
-      <c r="N59" s="113"/>
-      <c r="O59" s="113"/>
-      <c r="P59" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="113"/>
-      <c r="R59" s="113"/>
-      <c r="S59" s="173">
-        <v>3</v>
-      </c>
-      <c r="T59" s="174"/>
-      <c r="U59" s="167" t="s">
-        <v>218</v>
-      </c>
-      <c r="V59" s="168"/>
-      <c r="W59" s="168"/>
-      <c r="X59" s="168"/>
-      <c r="Y59" s="168"/>
-      <c r="Z59" s="169"/>
-      <c r="AA59" s="109" t="s">
+      <c r="AB59" s="86"/>
+      <c r="AC59" s="86"/>
+      <c r="AD59" s="86"/>
+      <c r="AE59" s="86"/>
+      <c r="AF59" s="86"/>
+      <c r="AG59" s="86"/>
+      <c r="AH59" s="86"/>
+      <c r="AI59" s="86"/>
+      <c r="AJ59" s="86"/>
+      <c r="AK59" s="86"/>
+      <c r="AL59" s="86"/>
+      <c r="AM59" s="86"/>
+      <c r="AN59" s="86"/>
+      <c r="AO59" s="86"/>
+      <c r="AP59" s="86"/>
+      <c r="AQ59" s="87"/>
+      <c r="AR59" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS59" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT59" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU59" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV59" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW59" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="AB59" s="110"/>
-      <c r="AC59" s="110"/>
-      <c r="AD59" s="110"/>
-      <c r="AE59" s="110"/>
-      <c r="AF59" s="110"/>
-      <c r="AG59" s="110"/>
-      <c r="AH59" s="110"/>
-      <c r="AI59" s="110"/>
-      <c r="AJ59" s="110"/>
-      <c r="AK59" s="110"/>
-      <c r="AL59" s="110"/>
-      <c r="AM59" s="110"/>
-      <c r="AN59" s="110"/>
-      <c r="AO59" s="110"/>
-      <c r="AP59" s="110"/>
-      <c r="AQ59" s="111"/>
-      <c r="AR59" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS59" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT59" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU59" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV59" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW59" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX59" s="74" t="s">
+      <c r="AX59" s="73" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="60" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="112" t="s">
+      <c r="B60" s="123" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="113"/>
-      <c r="D60" s="114" t="s">
+      <c r="C60" s="91"/>
+      <c r="D60" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="E60" s="113"/>
-      <c r="F60" s="115" t="s">
+      <c r="E60" s="91"/>
+      <c r="F60" s="118" t="s">
+        <v>195</v>
+      </c>
+      <c r="G60" s="119"/>
+      <c r="H60" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="I60" s="121"/>
+      <c r="J60" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="K60" s="122"/>
+      <c r="L60" s="122"/>
+      <c r="M60" s="91">
+        <v>2</v>
+      </c>
+      <c r="N60" s="91"/>
+      <c r="O60" s="91"/>
+      <c r="P60" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="91"/>
+      <c r="R60" s="91"/>
+      <c r="S60" s="80">
+        <v>3</v>
+      </c>
+      <c r="T60" s="81"/>
+      <c r="U60" s="82" t="s">
+        <v>216</v>
+      </c>
+      <c r="V60" s="83"/>
+      <c r="W60" s="83"/>
+      <c r="X60" s="83"/>
+      <c r="Y60" s="83"/>
+      <c r="Z60" s="84"/>
+      <c r="AA60" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="G60" s="116"/>
-      <c r="H60" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I60" s="171"/>
-      <c r="J60" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K60" s="172"/>
-      <c r="L60" s="172"/>
-      <c r="M60" s="113">
-        <v>2</v>
-      </c>
-      <c r="N60" s="113"/>
-      <c r="O60" s="113"/>
-      <c r="P60" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="113"/>
-      <c r="R60" s="113"/>
-      <c r="S60" s="173">
-        <v>3</v>
-      </c>
-      <c r="T60" s="174"/>
-      <c r="U60" s="167" t="s">
-        <v>219</v>
-      </c>
-      <c r="V60" s="168"/>
-      <c r="W60" s="168"/>
-      <c r="X60" s="168"/>
-      <c r="Y60" s="168"/>
-      <c r="Z60" s="169"/>
-      <c r="AA60" s="109" t="s">
+      <c r="AB60" s="86"/>
+      <c r="AC60" s="86"/>
+      <c r="AD60" s="86"/>
+      <c r="AE60" s="86"/>
+      <c r="AF60" s="86"/>
+      <c r="AG60" s="86"/>
+      <c r="AH60" s="86"/>
+      <c r="AI60" s="86"/>
+      <c r="AJ60" s="86"/>
+      <c r="AK60" s="86"/>
+      <c r="AL60" s="86"/>
+      <c r="AM60" s="86"/>
+      <c r="AN60" s="86"/>
+      <c r="AO60" s="86"/>
+      <c r="AP60" s="86"/>
+      <c r="AQ60" s="87"/>
+      <c r="AR60" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS60" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT60" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU60" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV60" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW60" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="AB60" s="110"/>
-      <c r="AC60" s="110"/>
-      <c r="AD60" s="110"/>
-      <c r="AE60" s="110"/>
-      <c r="AF60" s="110"/>
-      <c r="AG60" s="110"/>
-      <c r="AH60" s="110"/>
-      <c r="AI60" s="110"/>
-      <c r="AJ60" s="110"/>
-      <c r="AK60" s="110"/>
-      <c r="AL60" s="110"/>
-      <c r="AM60" s="110"/>
-      <c r="AN60" s="110"/>
-      <c r="AO60" s="110"/>
-      <c r="AP60" s="110"/>
-      <c r="AQ60" s="111"/>
-      <c r="AR60" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS60" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT60" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU60" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV60" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW60" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX60" s="74" t="s">
+      <c r="AX60" s="73" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="61" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="112" t="s">
+      <c r="B61" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="C61" s="113"/>
-      <c r="D61" s="114" t="s">
+      <c r="C61" s="91"/>
+      <c r="D61" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="E61" s="113"/>
-      <c r="F61" s="115" t="s">
+      <c r="E61" s="91"/>
+      <c r="F61" s="118" t="s">
+        <v>195</v>
+      </c>
+      <c r="G61" s="119"/>
+      <c r="H61" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="I61" s="121"/>
+      <c r="J61" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="K61" s="122"/>
+      <c r="L61" s="122"/>
+      <c r="M61" s="91">
+        <v>2</v>
+      </c>
+      <c r="N61" s="91"/>
+      <c r="O61" s="91"/>
+      <c r="P61" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="91"/>
+      <c r="R61" s="91"/>
+      <c r="S61" s="80">
+        <v>3</v>
+      </c>
+      <c r="T61" s="81"/>
+      <c r="U61" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="V61" s="83"/>
+      <c r="W61" s="83"/>
+      <c r="X61" s="83"/>
+      <c r="Y61" s="83"/>
+      <c r="Z61" s="84"/>
+      <c r="AA61" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="G61" s="116"/>
-      <c r="H61" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I61" s="171"/>
-      <c r="J61" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K61" s="172"/>
-      <c r="L61" s="172"/>
-      <c r="M61" s="113">
-        <v>2</v>
-      </c>
-      <c r="N61" s="113"/>
-      <c r="O61" s="113"/>
-      <c r="P61" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="113"/>
-      <c r="R61" s="113"/>
-      <c r="S61" s="173">
-        <v>3</v>
-      </c>
-      <c r="T61" s="174"/>
-      <c r="U61" s="167" t="s">
-        <v>220</v>
-      </c>
-      <c r="V61" s="168"/>
-      <c r="W61" s="168"/>
-      <c r="X61" s="168"/>
-      <c r="Y61" s="168"/>
-      <c r="Z61" s="169"/>
-      <c r="AA61" s="109" t="s">
+      <c r="AB61" s="86"/>
+      <c r="AC61" s="86"/>
+      <c r="AD61" s="86"/>
+      <c r="AE61" s="86"/>
+      <c r="AF61" s="86"/>
+      <c r="AG61" s="86"/>
+      <c r="AH61" s="86"/>
+      <c r="AI61" s="86"/>
+      <c r="AJ61" s="86"/>
+      <c r="AK61" s="86"/>
+      <c r="AL61" s="86"/>
+      <c r="AM61" s="86"/>
+      <c r="AN61" s="86"/>
+      <c r="AO61" s="86"/>
+      <c r="AP61" s="86"/>
+      <c r="AQ61" s="87"/>
+      <c r="AR61" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS61" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT61" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU61" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV61" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW61" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="AB61" s="110"/>
-      <c r="AC61" s="110"/>
-      <c r="AD61" s="110"/>
-      <c r="AE61" s="110"/>
-      <c r="AF61" s="110"/>
-      <c r="AG61" s="110"/>
-      <c r="AH61" s="110"/>
-      <c r="AI61" s="110"/>
-      <c r="AJ61" s="110"/>
-      <c r="AK61" s="110"/>
-      <c r="AL61" s="110"/>
-      <c r="AM61" s="110"/>
-      <c r="AN61" s="110"/>
-      <c r="AO61" s="110"/>
-      <c r="AP61" s="110"/>
-      <c r="AQ61" s="111"/>
-      <c r="AR61" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS61" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT61" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU61" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV61" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW61" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX61" s="74" t="s">
+      <c r="AX61" s="73" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="62" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="112" t="s">
+      <c r="B62" s="123" t="s">
         <v>178</v>
       </c>
-      <c r="C62" s="113"/>
-      <c r="D62" s="114" t="s">
+      <c r="C62" s="91"/>
+      <c r="D62" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="E62" s="113"/>
-      <c r="F62" s="115" t="s">
+      <c r="E62" s="91"/>
+      <c r="F62" s="118" t="s">
+        <v>195</v>
+      </c>
+      <c r="G62" s="119"/>
+      <c r="H62" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="I62" s="121"/>
+      <c r="J62" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="K62" s="122"/>
+      <c r="L62" s="122"/>
+      <c r="M62" s="91">
+        <v>2</v>
+      </c>
+      <c r="N62" s="91"/>
+      <c r="O62" s="91"/>
+      <c r="P62" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="91"/>
+      <c r="R62" s="91"/>
+      <c r="S62" s="80">
+        <v>3</v>
+      </c>
+      <c r="T62" s="81"/>
+      <c r="U62" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="V62" s="83"/>
+      <c r="W62" s="83"/>
+      <c r="X62" s="83"/>
+      <c r="Y62" s="83"/>
+      <c r="Z62" s="84"/>
+      <c r="AA62" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="G62" s="116"/>
-      <c r="H62" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I62" s="171"/>
-      <c r="J62" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K62" s="172"/>
-      <c r="L62" s="172"/>
-      <c r="M62" s="113">
-        <v>2</v>
-      </c>
-      <c r="N62" s="113"/>
-      <c r="O62" s="113"/>
-      <c r="P62" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="113"/>
-      <c r="R62" s="113"/>
-      <c r="S62" s="173">
-        <v>3</v>
-      </c>
-      <c r="T62" s="174"/>
-      <c r="U62" s="167" t="s">
-        <v>221</v>
-      </c>
-      <c r="V62" s="168"/>
-      <c r="W62" s="168"/>
-      <c r="X62" s="168"/>
-      <c r="Y62" s="168"/>
-      <c r="Z62" s="169"/>
-      <c r="AA62" s="109" t="s">
+      <c r="AB62" s="86"/>
+      <c r="AC62" s="86"/>
+      <c r="AD62" s="86"/>
+      <c r="AE62" s="86"/>
+      <c r="AF62" s="86"/>
+      <c r="AG62" s="86"/>
+      <c r="AH62" s="86"/>
+      <c r="AI62" s="86"/>
+      <c r="AJ62" s="86"/>
+      <c r="AK62" s="86"/>
+      <c r="AL62" s="86"/>
+      <c r="AM62" s="86"/>
+      <c r="AN62" s="86"/>
+      <c r="AO62" s="86"/>
+      <c r="AP62" s="86"/>
+      <c r="AQ62" s="87"/>
+      <c r="AR62" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS62" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT62" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU62" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV62" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW62" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="AB62" s="110"/>
-      <c r="AC62" s="110"/>
-      <c r="AD62" s="110"/>
-      <c r="AE62" s="110"/>
-      <c r="AF62" s="110"/>
-      <c r="AG62" s="110"/>
-      <c r="AH62" s="110"/>
-      <c r="AI62" s="110"/>
-      <c r="AJ62" s="110"/>
-      <c r="AK62" s="110"/>
-      <c r="AL62" s="110"/>
-      <c r="AM62" s="110"/>
-      <c r="AN62" s="110"/>
-      <c r="AO62" s="110"/>
-      <c r="AP62" s="110"/>
-      <c r="AQ62" s="111"/>
-      <c r="AR62" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS62" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT62" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU62" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV62" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW62" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX62" s="74" t="s">
+      <c r="AX62" s="73" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="63" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="112" t="s">
+      <c r="B63" s="123" t="s">
         <v>179</v>
       </c>
-      <c r="C63" s="113"/>
-      <c r="D63" s="114" t="s">
+      <c r="C63" s="91"/>
+      <c r="D63" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="E63" s="113"/>
-      <c r="F63" s="115" t="s">
+      <c r="E63" s="91"/>
+      <c r="F63" s="118" t="s">
+        <v>195</v>
+      </c>
+      <c r="G63" s="119"/>
+      <c r="H63" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="I63" s="121"/>
+      <c r="J63" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="K63" s="122"/>
+      <c r="L63" s="122"/>
+      <c r="M63" s="91">
+        <v>2</v>
+      </c>
+      <c r="N63" s="91"/>
+      <c r="O63" s="91"/>
+      <c r="P63" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="91"/>
+      <c r="R63" s="91"/>
+      <c r="S63" s="80">
+        <v>3</v>
+      </c>
+      <c r="T63" s="81"/>
+      <c r="U63" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="V63" s="83"/>
+      <c r="W63" s="83"/>
+      <c r="X63" s="83"/>
+      <c r="Y63" s="83"/>
+      <c r="Z63" s="84"/>
+      <c r="AA63" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="G63" s="116"/>
-      <c r="H63" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I63" s="171"/>
-      <c r="J63" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K63" s="172"/>
-      <c r="L63" s="172"/>
-      <c r="M63" s="113">
-        <v>2</v>
-      </c>
-      <c r="N63" s="113"/>
-      <c r="O63" s="113"/>
-      <c r="P63" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="113"/>
-      <c r="R63" s="113"/>
-      <c r="S63" s="173">
-        <v>3</v>
-      </c>
-      <c r="T63" s="174"/>
-      <c r="U63" s="167" t="s">
-        <v>222</v>
-      </c>
-      <c r="V63" s="168"/>
-      <c r="W63" s="168"/>
-      <c r="X63" s="168"/>
-      <c r="Y63" s="168"/>
-      <c r="Z63" s="169"/>
-      <c r="AA63" s="109" t="s">
+      <c r="AB63" s="86"/>
+      <c r="AC63" s="86"/>
+      <c r="AD63" s="86"/>
+      <c r="AE63" s="86"/>
+      <c r="AF63" s="86"/>
+      <c r="AG63" s="86"/>
+      <c r="AH63" s="86"/>
+      <c r="AI63" s="86"/>
+      <c r="AJ63" s="86"/>
+      <c r="AK63" s="86"/>
+      <c r="AL63" s="86"/>
+      <c r="AM63" s="86"/>
+      <c r="AN63" s="86"/>
+      <c r="AO63" s="86"/>
+      <c r="AP63" s="86"/>
+      <c r="AQ63" s="87"/>
+      <c r="AR63" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS63" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT63" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU63" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV63" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW63" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="AB63" s="110"/>
-      <c r="AC63" s="110"/>
-      <c r="AD63" s="110"/>
-      <c r="AE63" s="110"/>
-      <c r="AF63" s="110"/>
-      <c r="AG63" s="110"/>
-      <c r="AH63" s="110"/>
-      <c r="AI63" s="110"/>
-      <c r="AJ63" s="110"/>
-      <c r="AK63" s="110"/>
-      <c r="AL63" s="110"/>
-      <c r="AM63" s="110"/>
-      <c r="AN63" s="110"/>
-      <c r="AO63" s="110"/>
-      <c r="AP63" s="110"/>
-      <c r="AQ63" s="111"/>
-      <c r="AR63" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS63" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT63" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU63" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV63" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW63" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX63" s="74" t="s">
+      <c r="AX63" s="73" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="64" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="112" t="s">
+      <c r="B64" s="123" t="s">
         <v>180</v>
       </c>
-      <c r="C64" s="113"/>
-      <c r="D64" s="114" t="s">
+      <c r="C64" s="91"/>
+      <c r="D64" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="E64" s="113"/>
-      <c r="F64" s="115" t="s">
+      <c r="E64" s="91"/>
+      <c r="F64" s="118" t="s">
+        <v>195</v>
+      </c>
+      <c r="G64" s="119"/>
+      <c r="H64" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="I64" s="121"/>
+      <c r="J64" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="K64" s="122"/>
+      <c r="L64" s="122"/>
+      <c r="M64" s="91">
+        <v>2</v>
+      </c>
+      <c r="N64" s="91"/>
+      <c r="O64" s="91"/>
+      <c r="P64" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="91"/>
+      <c r="R64" s="91"/>
+      <c r="S64" s="80">
+        <v>3</v>
+      </c>
+      <c r="T64" s="81"/>
+      <c r="U64" s="82" t="s">
+        <v>220</v>
+      </c>
+      <c r="V64" s="83"/>
+      <c r="W64" s="83"/>
+      <c r="X64" s="83"/>
+      <c r="Y64" s="83"/>
+      <c r="Z64" s="84"/>
+      <c r="AA64" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="G64" s="116"/>
-      <c r="H64" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I64" s="171"/>
-      <c r="J64" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K64" s="172"/>
-      <c r="L64" s="172"/>
-      <c r="M64" s="113">
-        <v>2</v>
-      </c>
-      <c r="N64" s="113"/>
-      <c r="O64" s="113"/>
-      <c r="P64" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="113"/>
-      <c r="R64" s="113"/>
-      <c r="S64" s="173">
-        <v>3</v>
-      </c>
-      <c r="T64" s="174"/>
-      <c r="U64" s="167" t="s">
-        <v>223</v>
-      </c>
-      <c r="V64" s="168"/>
-      <c r="W64" s="168"/>
-      <c r="X64" s="168"/>
-      <c r="Y64" s="168"/>
-      <c r="Z64" s="169"/>
-      <c r="AA64" s="109" t="s">
+      <c r="AB64" s="86"/>
+      <c r="AC64" s="86"/>
+      <c r="AD64" s="86"/>
+      <c r="AE64" s="86"/>
+      <c r="AF64" s="86"/>
+      <c r="AG64" s="86"/>
+      <c r="AH64" s="86"/>
+      <c r="AI64" s="86"/>
+      <c r="AJ64" s="86"/>
+      <c r="AK64" s="86"/>
+      <c r="AL64" s="86"/>
+      <c r="AM64" s="86"/>
+      <c r="AN64" s="86"/>
+      <c r="AO64" s="86"/>
+      <c r="AP64" s="86"/>
+      <c r="AQ64" s="87"/>
+      <c r="AR64" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS64" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT64" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU64" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV64" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW64" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="AB64" s="110"/>
-      <c r="AC64" s="110"/>
-      <c r="AD64" s="110"/>
-      <c r="AE64" s="110"/>
-      <c r="AF64" s="110"/>
-      <c r="AG64" s="110"/>
-      <c r="AH64" s="110"/>
-      <c r="AI64" s="110"/>
-      <c r="AJ64" s="110"/>
-      <c r="AK64" s="110"/>
-      <c r="AL64" s="110"/>
-      <c r="AM64" s="110"/>
-      <c r="AN64" s="110"/>
-      <c r="AO64" s="110"/>
-      <c r="AP64" s="110"/>
-      <c r="AQ64" s="111"/>
-      <c r="AR64" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS64" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT64" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU64" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV64" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW64" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX64" s="74" t="s">
+      <c r="AX64" s="73" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="65" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="112" t="s">
+      <c r="B65" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="C65" s="113"/>
-      <c r="D65" s="114" t="s">
+      <c r="C65" s="91"/>
+      <c r="D65" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="E65" s="113"/>
-      <c r="F65" s="115" t="s">
+      <c r="E65" s="91"/>
+      <c r="F65" s="118" t="s">
+        <v>195</v>
+      </c>
+      <c r="G65" s="119"/>
+      <c r="H65" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="I65" s="121"/>
+      <c r="J65" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="K65" s="122"/>
+      <c r="L65" s="122"/>
+      <c r="M65" s="91">
+        <v>2</v>
+      </c>
+      <c r="N65" s="91"/>
+      <c r="O65" s="91"/>
+      <c r="P65" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="91"/>
+      <c r="R65" s="91"/>
+      <c r="S65" s="80">
+        <v>3</v>
+      </c>
+      <c r="T65" s="81"/>
+      <c r="U65" s="82" t="s">
+        <v>221</v>
+      </c>
+      <c r="V65" s="83"/>
+      <c r="W65" s="83"/>
+      <c r="X65" s="83"/>
+      <c r="Y65" s="83"/>
+      <c r="Z65" s="84"/>
+      <c r="AA65" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="G65" s="116"/>
-      <c r="H65" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I65" s="171"/>
-      <c r="J65" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K65" s="172"/>
-      <c r="L65" s="172"/>
-      <c r="M65" s="113">
-        <v>2</v>
-      </c>
-      <c r="N65" s="113"/>
-      <c r="O65" s="113"/>
-      <c r="P65" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="113"/>
-      <c r="R65" s="113"/>
-      <c r="S65" s="173">
-        <v>3</v>
-      </c>
-      <c r="T65" s="174"/>
-      <c r="U65" s="167" t="s">
-        <v>224</v>
-      </c>
-      <c r="V65" s="168"/>
-      <c r="W65" s="168"/>
-      <c r="X65" s="168"/>
-      <c r="Y65" s="168"/>
-      <c r="Z65" s="169"/>
-      <c r="AA65" s="109" t="s">
+      <c r="AB65" s="86"/>
+      <c r="AC65" s="86"/>
+      <c r="AD65" s="86"/>
+      <c r="AE65" s="86"/>
+      <c r="AF65" s="86"/>
+      <c r="AG65" s="86"/>
+      <c r="AH65" s="86"/>
+      <c r="AI65" s="86"/>
+      <c r="AJ65" s="86"/>
+      <c r="AK65" s="86"/>
+      <c r="AL65" s="86"/>
+      <c r="AM65" s="86"/>
+      <c r="AN65" s="86"/>
+      <c r="AO65" s="86"/>
+      <c r="AP65" s="86"/>
+      <c r="AQ65" s="87"/>
+      <c r="AR65" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS65" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT65" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU65" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV65" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW65" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="AB65" s="110"/>
-      <c r="AC65" s="110"/>
-      <c r="AD65" s="110"/>
-      <c r="AE65" s="110"/>
-      <c r="AF65" s="110"/>
-      <c r="AG65" s="110"/>
-      <c r="AH65" s="110"/>
-      <c r="AI65" s="110"/>
-      <c r="AJ65" s="110"/>
-      <c r="AK65" s="110"/>
-      <c r="AL65" s="110"/>
-      <c r="AM65" s="110"/>
-      <c r="AN65" s="110"/>
-      <c r="AO65" s="110"/>
-      <c r="AP65" s="110"/>
-      <c r="AQ65" s="111"/>
-      <c r="AR65" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS65" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT65" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU65" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV65" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW65" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX65" s="74" t="s">
+      <c r="AX65" s="73" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="66" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="112" t="s">
+      <c r="B66" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="C66" s="113"/>
-      <c r="D66" s="114" t="s">
+      <c r="C66" s="91"/>
+      <c r="D66" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="E66" s="113"/>
-      <c r="F66" s="115" t="s">
+      <c r="E66" s="91"/>
+      <c r="F66" s="118" t="s">
+        <v>195</v>
+      </c>
+      <c r="G66" s="119"/>
+      <c r="H66" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="I66" s="121"/>
+      <c r="J66" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="K66" s="122"/>
+      <c r="L66" s="122"/>
+      <c r="M66" s="91">
+        <v>2</v>
+      </c>
+      <c r="N66" s="91"/>
+      <c r="O66" s="91"/>
+      <c r="P66" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="91"/>
+      <c r="R66" s="91"/>
+      <c r="S66" s="80">
+        <v>3</v>
+      </c>
+      <c r="T66" s="81"/>
+      <c r="U66" s="82" t="s">
+        <v>222</v>
+      </c>
+      <c r="V66" s="83"/>
+      <c r="W66" s="83"/>
+      <c r="X66" s="83"/>
+      <c r="Y66" s="83"/>
+      <c r="Z66" s="84"/>
+      <c r="AA66" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="G66" s="116"/>
-      <c r="H66" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I66" s="171"/>
-      <c r="J66" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K66" s="172"/>
-      <c r="L66" s="172"/>
-      <c r="M66" s="113">
-        <v>2</v>
-      </c>
-      <c r="N66" s="113"/>
-      <c r="O66" s="113"/>
-      <c r="P66" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="113"/>
-      <c r="R66" s="113"/>
-      <c r="S66" s="173">
-        <v>3</v>
-      </c>
-      <c r="T66" s="174"/>
-      <c r="U66" s="167" t="s">
-        <v>225</v>
-      </c>
-      <c r="V66" s="168"/>
-      <c r="W66" s="168"/>
-      <c r="X66" s="168"/>
-      <c r="Y66" s="168"/>
-      <c r="Z66" s="169"/>
-      <c r="AA66" s="109" t="s">
+      <c r="AB66" s="86"/>
+      <c r="AC66" s="86"/>
+      <c r="AD66" s="86"/>
+      <c r="AE66" s="86"/>
+      <c r="AF66" s="86"/>
+      <c r="AG66" s="86"/>
+      <c r="AH66" s="86"/>
+      <c r="AI66" s="86"/>
+      <c r="AJ66" s="86"/>
+      <c r="AK66" s="86"/>
+      <c r="AL66" s="86"/>
+      <c r="AM66" s="86"/>
+      <c r="AN66" s="86"/>
+      <c r="AO66" s="86"/>
+      <c r="AP66" s="86"/>
+      <c r="AQ66" s="87"/>
+      <c r="AR66" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS66" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT66" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU66" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV66" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW66" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="AB66" s="110"/>
-      <c r="AC66" s="110"/>
-      <c r="AD66" s="110"/>
-      <c r="AE66" s="110"/>
-      <c r="AF66" s="110"/>
-      <c r="AG66" s="110"/>
-      <c r="AH66" s="110"/>
-      <c r="AI66" s="110"/>
-      <c r="AJ66" s="110"/>
-      <c r="AK66" s="110"/>
-      <c r="AL66" s="110"/>
-      <c r="AM66" s="110"/>
-      <c r="AN66" s="110"/>
-      <c r="AO66" s="110"/>
-      <c r="AP66" s="110"/>
-      <c r="AQ66" s="111"/>
-      <c r="AR66" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS66" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT66" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU66" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV66" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW66" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX66" s="74" t="s">
+      <c r="AX66" s="73" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="67" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="112" t="s">
+      <c r="B67" s="123" t="s">
         <v>186</v>
       </c>
-      <c r="C67" s="113"/>
-      <c r="D67" s="114" t="s">
+      <c r="C67" s="91"/>
+      <c r="D67" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="E67" s="113"/>
-      <c r="F67" s="115" t="s">
+      <c r="E67" s="91"/>
+      <c r="F67" s="118" t="s">
+        <v>195</v>
+      </c>
+      <c r="G67" s="119"/>
+      <c r="H67" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="I67" s="121"/>
+      <c r="J67" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="K67" s="122"/>
+      <c r="L67" s="122"/>
+      <c r="M67" s="91">
+        <v>2</v>
+      </c>
+      <c r="N67" s="91"/>
+      <c r="O67" s="91"/>
+      <c r="P67" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="91"/>
+      <c r="R67" s="91"/>
+      <c r="S67" s="80">
+        <v>3</v>
+      </c>
+      <c r="T67" s="81"/>
+      <c r="U67" s="82" t="s">
+        <v>223</v>
+      </c>
+      <c r="V67" s="83"/>
+      <c r="W67" s="83"/>
+      <c r="X67" s="83"/>
+      <c r="Y67" s="83"/>
+      <c r="Z67" s="84"/>
+      <c r="AA67" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="G67" s="116"/>
-      <c r="H67" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I67" s="171"/>
-      <c r="J67" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K67" s="172"/>
-      <c r="L67" s="172"/>
-      <c r="M67" s="113">
-        <v>2</v>
-      </c>
-      <c r="N67" s="113"/>
-      <c r="O67" s="113"/>
-      <c r="P67" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="113"/>
-      <c r="R67" s="113"/>
-      <c r="S67" s="173">
-        <v>3</v>
-      </c>
-      <c r="T67" s="174"/>
-      <c r="U67" s="167" t="s">
-        <v>226</v>
-      </c>
-      <c r="V67" s="168"/>
-      <c r="W67" s="168"/>
-      <c r="X67" s="168"/>
-      <c r="Y67" s="168"/>
-      <c r="Z67" s="169"/>
-      <c r="AA67" s="109" t="s">
+      <c r="AB67" s="86"/>
+      <c r="AC67" s="86"/>
+      <c r="AD67" s="86"/>
+      <c r="AE67" s="86"/>
+      <c r="AF67" s="86"/>
+      <c r="AG67" s="86"/>
+      <c r="AH67" s="86"/>
+      <c r="AI67" s="86"/>
+      <c r="AJ67" s="86"/>
+      <c r="AK67" s="86"/>
+      <c r="AL67" s="86"/>
+      <c r="AM67" s="86"/>
+      <c r="AN67" s="86"/>
+      <c r="AO67" s="86"/>
+      <c r="AP67" s="86"/>
+      <c r="AQ67" s="87"/>
+      <c r="AR67" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS67" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT67" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU67" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV67" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW67" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="AB67" s="110"/>
-      <c r="AC67" s="110"/>
-      <c r="AD67" s="110"/>
-      <c r="AE67" s="110"/>
-      <c r="AF67" s="110"/>
-      <c r="AG67" s="110"/>
-      <c r="AH67" s="110"/>
-      <c r="AI67" s="110"/>
-      <c r="AJ67" s="110"/>
-      <c r="AK67" s="110"/>
-      <c r="AL67" s="110"/>
-      <c r="AM67" s="110"/>
-      <c r="AN67" s="110"/>
-      <c r="AO67" s="110"/>
-      <c r="AP67" s="110"/>
-      <c r="AQ67" s="111"/>
-      <c r="AR67" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS67" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT67" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU67" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV67" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW67" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX67" s="74" t="s">
+      <c r="AX67" s="73" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="68" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="112" t="s">
+      <c r="B68" s="123" t="s">
         <v>187</v>
       </c>
-      <c r="C68" s="113"/>
-      <c r="D68" s="114" t="s">
+      <c r="C68" s="91"/>
+      <c r="D68" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="E68" s="113"/>
-      <c r="F68" s="115" t="s">
+      <c r="E68" s="91"/>
+      <c r="F68" s="118" t="s">
+        <v>195</v>
+      </c>
+      <c r="G68" s="119"/>
+      <c r="H68" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="I68" s="121"/>
+      <c r="J68" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="K68" s="122"/>
+      <c r="L68" s="122"/>
+      <c r="M68" s="91">
+        <v>2</v>
+      </c>
+      <c r="N68" s="91"/>
+      <c r="O68" s="91"/>
+      <c r="P68" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="91"/>
+      <c r="R68" s="91"/>
+      <c r="S68" s="80">
+        <v>3</v>
+      </c>
+      <c r="T68" s="81"/>
+      <c r="U68" s="82" t="s">
+        <v>224</v>
+      </c>
+      <c r="V68" s="83"/>
+      <c r="W68" s="83"/>
+      <c r="X68" s="83"/>
+      <c r="Y68" s="83"/>
+      <c r="Z68" s="84"/>
+      <c r="AA68" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="G68" s="116"/>
-      <c r="H68" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I68" s="171"/>
-      <c r="J68" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K68" s="172"/>
-      <c r="L68" s="172"/>
-      <c r="M68" s="113">
-        <v>2</v>
-      </c>
-      <c r="N68" s="113"/>
-      <c r="O68" s="113"/>
-      <c r="P68" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="113"/>
-      <c r="R68" s="113"/>
-      <c r="S68" s="173">
-        <v>3</v>
-      </c>
-      <c r="T68" s="174"/>
-      <c r="U68" s="167" t="s">
+      <c r="AB68" s="86"/>
+      <c r="AC68" s="86"/>
+      <c r="AD68" s="86"/>
+      <c r="AE68" s="86"/>
+      <c r="AF68" s="86"/>
+      <c r="AG68" s="86"/>
+      <c r="AH68" s="86"/>
+      <c r="AI68" s="86"/>
+      <c r="AJ68" s="86"/>
+      <c r="AK68" s="86"/>
+      <c r="AL68" s="86"/>
+      <c r="AM68" s="86"/>
+      <c r="AN68" s="86"/>
+      <c r="AO68" s="86"/>
+      <c r="AP68" s="86"/>
+      <c r="AQ68" s="87"/>
+      <c r="AR68" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS68" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT68" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU68" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="V68" s="168"/>
-      <c r="W68" s="168"/>
-      <c r="X68" s="168"/>
-      <c r="Y68" s="168"/>
-      <c r="Z68" s="169"/>
-      <c r="AA68" s="109" t="s">
+      <c r="AV68" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW68" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="AB68" s="110"/>
-      <c r="AC68" s="110"/>
-      <c r="AD68" s="110"/>
-      <c r="AE68" s="110"/>
-      <c r="AF68" s="110"/>
-      <c r="AG68" s="110"/>
-      <c r="AH68" s="110"/>
-      <c r="AI68" s="110"/>
-      <c r="AJ68" s="110"/>
-      <c r="AK68" s="110"/>
-      <c r="AL68" s="110"/>
-      <c r="AM68" s="110"/>
-      <c r="AN68" s="110"/>
-      <c r="AO68" s="110"/>
-      <c r="AP68" s="110"/>
-      <c r="AQ68" s="111"/>
-      <c r="AR68" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS68" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT68" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU68" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV68" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW68" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX68" s="74" t="s">
+      <c r="AX68" s="73" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="69" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="112" t="s">
+      <c r="B69" s="123" t="s">
         <v>188</v>
       </c>
-      <c r="C69" s="113"/>
-      <c r="D69" s="114" t="s">
+      <c r="C69" s="91"/>
+      <c r="D69" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="E69" s="113"/>
-      <c r="F69" s="115" t="s">
+      <c r="E69" s="91"/>
+      <c r="F69" s="118" t="s">
+        <v>195</v>
+      </c>
+      <c r="G69" s="119"/>
+      <c r="H69" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="I69" s="121"/>
+      <c r="J69" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="K69" s="122"/>
+      <c r="L69" s="122"/>
+      <c r="M69" s="91">
+        <v>2</v>
+      </c>
+      <c r="N69" s="91"/>
+      <c r="O69" s="91"/>
+      <c r="P69" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="91"/>
+      <c r="R69" s="91"/>
+      <c r="S69" s="80">
+        <v>3</v>
+      </c>
+      <c r="T69" s="81"/>
+      <c r="U69" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="V69" s="83"/>
+      <c r="W69" s="83"/>
+      <c r="X69" s="83"/>
+      <c r="Y69" s="83"/>
+      <c r="Z69" s="84"/>
+      <c r="AA69" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="G69" s="116"/>
-      <c r="H69" s="170" t="s">
-        <v>198</v>
-      </c>
-      <c r="I69" s="171"/>
-      <c r="J69" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="K69" s="172"/>
-      <c r="L69" s="172"/>
-      <c r="M69" s="113">
-        <v>2</v>
-      </c>
-      <c r="N69" s="113"/>
-      <c r="O69" s="113"/>
-      <c r="P69" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="113"/>
-      <c r="R69" s="113"/>
-      <c r="S69" s="173">
-        <v>3</v>
-      </c>
-      <c r="T69" s="174"/>
-      <c r="U69" s="167" t="s">
+      <c r="AB69" s="86"/>
+      <c r="AC69" s="86"/>
+      <c r="AD69" s="86"/>
+      <c r="AE69" s="86"/>
+      <c r="AF69" s="86"/>
+      <c r="AG69" s="86"/>
+      <c r="AH69" s="86"/>
+      <c r="AI69" s="86"/>
+      <c r="AJ69" s="86"/>
+      <c r="AK69" s="86"/>
+      <c r="AL69" s="86"/>
+      <c r="AM69" s="86"/>
+      <c r="AN69" s="86"/>
+      <c r="AO69" s="86"/>
+      <c r="AP69" s="86"/>
+      <c r="AQ69" s="87"/>
+      <c r="AR69" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS69" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT69" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="V69" s="168"/>
-      <c r="W69" s="168"/>
-      <c r="X69" s="168"/>
-      <c r="Y69" s="168"/>
-      <c r="Z69" s="169"/>
-      <c r="AA69" s="109" t="s">
+      <c r="AU69" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV69" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW69" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="AB69" s="110"/>
-      <c r="AC69" s="110"/>
-      <c r="AD69" s="110"/>
-      <c r="AE69" s="110"/>
-      <c r="AF69" s="110"/>
-      <c r="AG69" s="110"/>
-      <c r="AH69" s="110"/>
-      <c r="AI69" s="110"/>
-      <c r="AJ69" s="110"/>
-      <c r="AK69" s="110"/>
-      <c r="AL69" s="110"/>
-      <c r="AM69" s="110"/>
-      <c r="AN69" s="110"/>
-      <c r="AO69" s="110"/>
-      <c r="AP69" s="110"/>
-      <c r="AQ69" s="111"/>
-      <c r="AR69" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS69" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT69" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU69" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV69" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW69" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX69" s="74" t="s">
+      <c r="AX69" s="73" t="s">
         <v>125</v>
       </c>
     </row>
@@ -23087,25 +23230,25 @@
       <c r="AQ92" s="5"/>
     </row>
     <row r="93" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B93" s="106" t="s">
+      <c r="B93" s="115" t="s">
         <v>189</v>
       </c>
-      <c r="C93" s="106"/>
-      <c r="D93" s="106"/>
-      <c r="E93" s="106"/>
-      <c r="F93" s="106"/>
-      <c r="G93" s="106"/>
-      <c r="H93" s="106"/>
-      <c r="I93" s="106"/>
-      <c r="J93" s="106"/>
-      <c r="K93" s="106"/>
-      <c r="L93" s="106"/>
-      <c r="M93" s="106"/>
-      <c r="N93" s="106"/>
-      <c r="O93" s="106"/>
-      <c r="P93" s="106"/>
-      <c r="Q93" s="106"/>
-      <c r="R93" s="106"/>
+      <c r="C93" s="115"/>
+      <c r="D93" s="115"/>
+      <c r="E93" s="115"/>
+      <c r="F93" s="115"/>
+      <c r="G93" s="115"/>
+      <c r="H93" s="115"/>
+      <c r="I93" s="115"/>
+      <c r="J93" s="115"/>
+      <c r="K93" s="115"/>
+      <c r="L93" s="115"/>
+      <c r="M93" s="115"/>
+      <c r="N93" s="115"/>
+      <c r="O93" s="115"/>
+      <c r="P93" s="115"/>
+      <c r="Q93" s="115"/>
+      <c r="R93" s="115"/>
       <c r="AB93" s="10" t="s">
         <v>23</v>
       </c>
@@ -23138,20 +23281,20 @@
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
-      <c r="H95" s="107" t="s">
+      <c r="H95" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="I95" s="107"/>
-      <c r="J95" s="107"/>
-      <c r="K95" s="107"/>
-      <c r="L95" s="107"/>
-      <c r="M95" s="107"/>
-      <c r="N95" s="107"/>
-      <c r="O95" s="107"/>
-      <c r="P95" s="107"/>
-      <c r="Q95" s="107"/>
-      <c r="R95" s="107"/>
-      <c r="S95" s="107"/>
+      <c r="I95" s="116"/>
+      <c r="J95" s="116"/>
+      <c r="K95" s="116"/>
+      <c r="L95" s="116"/>
+      <c r="M95" s="116"/>
+      <c r="N95" s="116"/>
+      <c r="O95" s="116"/>
+      <c r="P95" s="116"/>
+      <c r="Q95" s="116"/>
+      <c r="R95" s="116"/>
+      <c r="S95" s="116"/>
       <c r="AM95" t="s">
         <v>81</v>
       </c>
@@ -23540,25 +23683,25 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M70:O70" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M70:O70">
       <formula1>Tecnicas_Pruebas</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H70:I70" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H70:I70">
       <formula1>Componentes</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P70:R70" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P70:R70">
       <formula1>Caracteristica_Evaluar</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX70" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX70">
       <formula1>Estado_CP</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F70:G70" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F70:G70">
       <formula1>Requerimientos</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S70:T70" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S70:T70">
       <formula1>Metodos_Pruebas</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS44:AS69" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS44:AS69">
       <formula1>"Crítico,Mayor,Menor"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23572,37 +23715,37 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{85B2D4D3-4F73-4147-A2C9-944AB7CAAAE1}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$69:$A$87</xm:f>
           </x14:formula1>
           <xm:sqref>D44:E69</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6C85D490-1E1C-48C9-9C49-5B3E0AAC0A99}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$98:$A$99</xm:f>
           </x14:formula1>
           <xm:sqref>AR44:AR69</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AB697AAF-5F00-49A1-8F6D-0CB2913A5334}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$24:$A$29</xm:f>
           </x14:formula1>
           <xm:sqref>M44:O69</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{175E4247-2007-40D6-9917-123D40E92C5E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$33:$A$37</xm:f>
           </x14:formula1>
           <xm:sqref>P44:R69</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DE09161-DC11-4A8F-A922-B50BAC23379F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$42:$A$51</xm:f>
           </x14:formula1>
           <xm:sqref>S44:T69</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BCC09B40-E055-4B6D-B605-1BD456407C11}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$62:$A$66</xm:f>
           </x14:formula1>
@@ -23615,7 +23758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q99"/>
   <sheetViews>
     <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -24376,10 +24519,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20">
       <formula1>Metodos_Pruebas</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:G20 K20:L20 Q20" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:G20 K20:L20 Q20">
       <formula1>Tecnicas_Pruebas</formula1>
     </dataValidation>
   </dataValidations>
